--- a/data/hotels_by_city/Dallas/Dallas_shard_661.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_661.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1764 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r582296750-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>56763</t>
+  </si>
+  <si>
+    <t>1449336</t>
+  </si>
+  <si>
+    <t>582296750</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Nice new hotel, very comfortable &amp; quiet</t>
+  </si>
+  <si>
+    <t>Stayed here while on a business trip. The hotel is relatively new, and is situated next to 2 other Marriott family hotels (Courtyard and something else). While the overall room is relatively large (and comparable to other new Residence Inn's I have stayed at), the actual bedroom felt a bit small/cramped.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Stayed here while on a business trip. The hotel is relatively new, and is situated next to 2 other Marriott family hotels (Courtyard and something else). While the overall room is relatively large (and comparable to other new Residence Inn's I have stayed at), the actual bedroom felt a bit small/cramped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r578902402-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>578902402</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Front desk extremely helpful</t>
+  </si>
+  <si>
+    <t>We just spent the entire last week at this hotel since we just moved from CA to TX. We felt at home, thanks to amazing folks at the front desk. I would like to shout out 2 names especially, Chris and Charlene. I would have given 5 stars but since our room location wasn't that good, I am giving 4 out of 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We just spent the entire last week at this hotel since we just moved from CA to TX. We felt at home, thanks to amazing folks at the front desk. I would like to shout out 2 names especially, Chris and Charlene. I would have given 5 stars but since our room location wasn't that good, I am giving 4 out of 5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r559054586-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>559054586</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Well done!!!</t>
+  </si>
+  <si>
+    <t>Thank you Residence Inn!! Your staff were kind and welcoming! Even on the phone. We utilize the shuttle service, breakfast on site, and our rooms were impeccable!! Great stay!! We hope to be back with you next February!! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Thank you Residence Inn!! Your staff were kind and welcoming! Even on the phone. We utilize the shuttle service, breakfast on site, and our rooms were impeccable!! Great stay!! We hope to be back with you next February!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r545330424-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>545330424</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Nice Residence Inn</t>
+  </si>
+  <si>
+    <t>We booked a suite over a long weekend.  It was nice, but a bit dated and needed some serious cleaning and repair.  The water was always hot and the beds were great.  The bathroom was exceptionally small (there was less than 2 centimeters clearance from the door to the front of the toilet).  The buffet in the morning was nice.  We were disappointed to find that the pool was outdoors and not indoors.This hotel is pet friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>We booked a suite over a long weekend.  It was nice, but a bit dated and needed some serious cleaning and repair.  The water was always hot and the beds were great.  The bathroom was exceptionally small (there was less than 2 centimeters clearance from the door to the front of the toilet).  The buffet in the morning was nice.  We were disappointed to find that the pool was outdoors and not indoors.This hotel is pet friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r544508577-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>544508577</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overnight getaway </t>
+  </si>
+  <si>
+    <t>Stayed over thanksgiving holiday weekend. Room was clean . Great location close to many attractions. Quiet even though we were located by the parking lot. Has basketball court outside if you have kids who like to play. No indoor pool so not an option during winter months. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Stayed over thanksgiving holiday weekend. Room was clean . Great location close to many attractions. Quiet even though we were located by the parking lot. Has basketball court outside if you have kids who like to play. No indoor pool so not an option during winter months. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r544284736-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>544284736</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Loved this hotel a LOT!!</t>
+  </si>
+  <si>
+    <t>I don't know why some people rated this hotel so poorly. I felt like I was at a top notch hotel! It is beautiful, clean, well decorated and trendy looking. The complimentary breakfast was delish and filled with healthy options which is always so hard to find in many hotels. There were the usual carbs and waffles but also a breakfast burrito station with real scrambled eggs ( not that watered down stuff), fresh fruit like berries and pineapple, cheeses like Brie and some other sliced cheese that was yummy. Hard boiled eggs, coffee and tea and hot chocolate, bacon ( which smelled so good!), healthy Greek yogurt and toppings, oatmeal. I'm sure I'm missing some items but it was delish. On the night we arrived they had a complimentary dessert social happening in the eating area. The pool looked nice even tho I didn't try it. There is a fire pit outside which was very nice also. 
+Our room was equipped with a full kitchen and even dishwasher! The room had a pull out couch where my son slept plus a large king size bed. The furniture was clean and modern. The room was impeccable other than the sliding door in the closet that was off the track but that's really it! The staff was so friendly and courteous. They were happy to help and listened to whatever we had to say and asked how our stay was going...I don't know why some people rated this hotel so poorly. I felt like I was at a top notch hotel! It is beautiful, clean, well decorated and trendy looking. The complimentary breakfast was delish and filled with healthy options which is always so hard to find in many hotels. There were the usual carbs and waffles but also a breakfast burrito station with real scrambled eggs ( not that watered down stuff), fresh fruit like berries and pineapple, cheeses like Brie and some other sliced cheese that was yummy. Hard boiled eggs, coffee and tea and hot chocolate, bacon ( which smelled so good!), healthy Greek yogurt and toppings, oatmeal. I'm sure I'm missing some items but it was delish. On the night we arrived they had a complimentary dessert social happening in the eating area. The pool looked nice even tho I didn't try it. There is a fire pit outside which was very nice also. Our room was equipped with a full kitchen and even dishwasher! The room had a pull out couch where my son slept plus a large king size bed. The furniture was clean and modern. The room was impeccable other than the sliding door in the closet that was off the track but that's really it! The staff was so friendly and courteous. They were happy to help and listened to whatever we had to say and asked how our stay was going when they saw us. We got a complimentary snack of our choosing from the market at the hotel  so we selected a pint of Ben and jerry's ice cream. Completely free. I wish all hotels were this great.MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't know why some people rated this hotel so poorly. I felt like I was at a top notch hotel! It is beautiful, clean, well decorated and trendy looking. The complimentary breakfast was delish and filled with healthy options which is always so hard to find in many hotels. There were the usual carbs and waffles but also a breakfast burrito station with real scrambled eggs ( not that watered down stuff), fresh fruit like berries and pineapple, cheeses like Brie and some other sliced cheese that was yummy. Hard boiled eggs, coffee and tea and hot chocolate, bacon ( which smelled so good!), healthy Greek yogurt and toppings, oatmeal. I'm sure I'm missing some items but it was delish. On the night we arrived they had a complimentary dessert social happening in the eating area. The pool looked nice even tho I didn't try it. There is a fire pit outside which was very nice also. 
+Our room was equipped with a full kitchen and even dishwasher! The room had a pull out couch where my son slept plus a large king size bed. The furniture was clean and modern. The room was impeccable other than the sliding door in the closet that was off the track but that's really it! The staff was so friendly and courteous. They were happy to help and listened to whatever we had to say and asked how our stay was going...I don't know why some people rated this hotel so poorly. I felt like I was at a top notch hotel! It is beautiful, clean, well decorated and trendy looking. The complimentary breakfast was delish and filled with healthy options which is always so hard to find in many hotels. There were the usual carbs and waffles but also a breakfast burrito station with real scrambled eggs ( not that watered down stuff), fresh fruit like berries and pineapple, cheeses like Brie and some other sliced cheese that was yummy. Hard boiled eggs, coffee and tea and hot chocolate, bacon ( which smelled so good!), healthy Greek yogurt and toppings, oatmeal. I'm sure I'm missing some items but it was delish. On the night we arrived they had a complimentary dessert social happening in the eating area. The pool looked nice even tho I didn't try it. There is a fire pit outside which was very nice also. Our room was equipped with a full kitchen and even dishwasher! The room had a pull out couch where my son slept plus a large king size bed. The furniture was clean and modern. The room was impeccable other than the sliding door in the closet that was off the track but that's really it! The staff was so friendly and courteous. They were happy to help and listened to whatever we had to say and asked how our stay was going when they saw us. We got a complimentary snack of our choosing from the market at the hotel  so we selected a pint of Ben and jerry's ice cream. Completely free. I wish all hotels were this great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r510286362-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>510286362</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Ok Venue marred by crazy guests below!!</t>
+  </si>
+  <si>
+    <t>I stayed here for one night. The room was large with a kitchen, living room etc. The bathroom was pretty basic and dated; however the overall layout was good. Breakfast was standard Marriott and the offering was ok. The only issue I had was the room below which partied literally all night and the hotel struggled to address at the time. Normally this would drag the score to one star; however in the morning the FOM dealt with it very professionally and as a result I suggest 3 stars as my issue was dealt with swiftly. Strictly from a venue point of view, if you want a more modern room the courtyard colony is newer but it comes without breakfast!!MoreShow less</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for one night. The room was large with a kitchen, living room etc. The bathroom was pretty basic and dated; however the overall layout was good. Breakfast was standard Marriott and the offering was ok. The only issue I had was the room below which partied literally all night and the hotel struggled to address at the time. Normally this would drag the score to one star; however in the morning the FOM dealt with it very professionally and as a result I suggest 3 stars as my issue was dealt with swiftly. Strictly from a venue point of view, if you want a more modern room the courtyard colony is newer but it comes without breakfast!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r510144884-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>510144884</t>
+  </si>
+  <si>
+    <t>Solid stay, but I hate not knowing there are a ton of kids in a place.</t>
+  </si>
+  <si>
+    <t>The room itself was nice and pretty clean.  Took me a minute to find the towels since they were hidden behind the bathroom door.  I booked this place since it was bigger and slightly outside of Dallas hoping it would be quieter than other places.  Nope, multiple little league baseball teams.  The hotel can't control the kids (neither could the parents) but there has to be something that can buffer the noise a little better.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>The room itself was nice and pretty clean.  Took me a minute to find the towels since they were hidden behind the bathroom door.  I booked this place since it was bigger and slightly outside of Dallas hoping it would be quieter than other places.  Nope, multiple little league baseball teams.  The hotel can't control the kids (neither could the parents) but there has to be something that can buffer the noise a little better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r509436000-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>509436000</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>The most HORRIBLE experience EVER!!!</t>
+  </si>
+  <si>
+    <t>We stayed there in a 2 bedroom suite with my husband and 3 small kids on 23rd - 25th July. On 25th afternoon when we checked out, unfortunately I left a bag of shopped items from Allen mall worth around $500 with everything labeled. On realizing at the same evening I called the reception and told them that I forgot my things in the room. They said house keeping has already left and we will let you know tomorrow morning. Nobody called me back and I called the next day and on inquiring they said we didn't find anything. I asked for the owners number Mr. AJ as per the front desk. I called him and he sound very helping and he said he will inquire and will give me a call back. He never called me back. On calling him back he didn't pick up the phone few times and once he picked he said the lady who cleaned the room is off today and I remember and will call you back. I never received a call back from him then. I called him so many times after that and he never picked up my phone. Clearly, I left my things there and never got my things back. On top of that nobody was there to address my issue. I have stayed at different Marriott residence inn throughout the US and Canada but this hotel is the worst. If...We stayed there in a 2 bedroom suite with my husband and 3 small kids on 23rd - 25th July. On 25th afternoon when we checked out, unfortunately I left a bag of shopped items from Allen mall worth around $500 with everything labeled. On realizing at the same evening I called the reception and told them that I forgot my things in the room. They said house keeping has already left and we will let you know tomorrow morning. Nobody called me back and I called the next day and on inquiring they said we didn't find anything. I asked for the owners number Mr. AJ as per the front desk. I called him and he sound very helping and he said he will inquire and will give me a call back. He never called me back. On calling him back he didn't pick up the phone few times and once he picked he said the lady who cleaned the room is off today and I remember and will call you back. I never received a call back from him then. I called him so many times after that and he never picked up my phone. Clearly, I left my things there and never got my things back. On top of that nobody was there to address my issue. I have stayed at different Marriott residence inn throughout the US and Canada but this hotel is the worst. If my kids leave even some toys in hotels, they keep it and email us about it. We are sooooo DISAPPOINTED with this hotel and would never return to this one!!!! Be cautious!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>We stayed there in a 2 bedroom suite with my husband and 3 small kids on 23rd - 25th July. On 25th afternoon when we checked out, unfortunately I left a bag of shopped items from Allen mall worth around $500 with everything labeled. On realizing at the same evening I called the reception and told them that I forgot my things in the room. They said house keeping has already left and we will let you know tomorrow morning. Nobody called me back and I called the next day and on inquiring they said we didn't find anything. I asked for the owners number Mr. AJ as per the front desk. I called him and he sound very helping and he said he will inquire and will give me a call back. He never called me back. On calling him back he didn't pick up the phone few times and once he picked he said the lady who cleaned the room is off today and I remember and will call you back. I never received a call back from him then. I called him so many times after that and he never picked up my phone. Clearly, I left my things there and never got my things back. On top of that nobody was there to address my issue. I have stayed at different Marriott residence inn throughout the US and Canada but this hotel is the worst. If...We stayed there in a 2 bedroom suite with my husband and 3 small kids on 23rd - 25th July. On 25th afternoon when we checked out, unfortunately I left a bag of shopped items from Allen mall worth around $500 with everything labeled. On realizing at the same evening I called the reception and told them that I forgot my things in the room. They said house keeping has already left and we will let you know tomorrow morning. Nobody called me back and I called the next day and on inquiring they said we didn't find anything. I asked for the owners number Mr. AJ as per the front desk. I called him and he sound very helping and he said he will inquire and will give me a call back. He never called me back. On calling him back he didn't pick up the phone few times and once he picked he said the lady who cleaned the room is off today and I remember and will call you back. I never received a call back from him then. I called him so many times after that and he never picked up my phone. Clearly, I left my things there and never got my things back. On top of that nobody was there to address my issue. I have stayed at different Marriott residence inn throughout the US and Canada but this hotel is the worst. If my kids leave even some toys in hotels, they keep it and email us about it. We are sooooo DISAPPOINTED with this hotel and would never return to this one!!!! Be cautious!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r486471354-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>486471354</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Love the set up</t>
+  </si>
+  <si>
+    <t>In town to bring our 5 month old baby to meet friends.  The King suite was set up nice and comfortable. Loved the fully stocked kitchen. Hotel is dog friendly and has a dog park.  We travel everywhere with our dog, so we loved this.  Breakfast was tasty. The outdoor seating area was perfect for having friends over for a visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>In town to bring our 5 month old baby to meet friends.  The King suite was set up nice and comfortable. Loved the fully stocked kitchen. Hotel is dog friendly and has a dog park.  We travel everywhere with our dog, so we loved this.  Breakfast was tasty. The outdoor seating area was perfect for having friends over for a visit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r485803525-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>485803525</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Great Dallas Access Point/ Awesome Staff</t>
+  </si>
+  <si>
+    <t>When you do a weekend away you want things to go easy and smooth. Right through the front door Stacy was waiting with a smile and awesome greeting! This actually makes a difference vs the fake welcomes at some places. She totally new about the local attractions and got us upstairs quick!The night/afternoon crew was run by Tyler both nights and we simply picked up the phone for anything and he happily nailed it every time!Had to cut the trip a day short but cant wait to return with great staff members and awesome location!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>When you do a weekend away you want things to go easy and smooth. Right through the front door Stacy was waiting with a smile and awesome greeting! This actually makes a difference vs the fake welcomes at some places. She totally new about the local attractions and got us upstairs quick!The night/afternoon crew was run by Tyler both nights and we simply picked up the phone for anything and he happily nailed it every time!Had to cut the trip a day short but cant wait to return with great staff members and awesome location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r482057902-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>482057902</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Clean Grounds &amp; Wonderful Staff</t>
+  </si>
+  <si>
+    <t>The entire grounds are clean and kept manicured.  The staff is sweet and wonderful too. Checking into the room was a smooth and easy process as well. The location was well planned; with a few minutes of everything we wanted to see and do.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>The entire grounds are clean and kept manicured.  The staff is sweet and wonderful too. Checking into the room was a smooth and easy process as well. The location was well planned; with a few minutes of everything we wanted to see and do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r471520329-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>471520329</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Great Location - Everything You'd Expect from a Residence Inn</t>
+  </si>
+  <si>
+    <t>Recently spent one week at this property.  Excellent location to points in Plano, Frisco, or even locations in Flower Mound and Highland Village.  With access right off the Dallas Tollway, you can be anywhere in the Dallas area in 30 minutes.  The Stonebriar Mall in Frisco is less than 10 minutes away and there are loads of newer strip malls in the immediate area offering lots of dining options.The hotel itself is updated, clean, and offers your standard Residence Inn breakfast and evening cocktail/snack service.  While I wish the eggs were real eggs (either they're powered eggs or just "wet") that was about the worst of it.  Outdoor pool is clean and the workout area is average size with the basics.  Staff is attentive and very courteous.If there had to be a negative, it would be with their preparedness of their "business center."  The printer ran out of ink and by the time I checked out six days later, they still had not figured out a way to get another ink cartridge.  Should have been an easy fix.  They did adapt and allow guests to use their office computer for printing needs.  Seems like it's a common problem as I walked across the parking lot to their sister Fairfield Inn and one of their two printers were out of ink too!Regardless, a good option in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Recently spent one week at this property.  Excellent location to points in Plano, Frisco, or even locations in Flower Mound and Highland Village.  With access right off the Dallas Tollway, you can be anywhere in the Dallas area in 30 minutes.  The Stonebriar Mall in Frisco is less than 10 minutes away and there are loads of newer strip malls in the immediate area offering lots of dining options.The hotel itself is updated, clean, and offers your standard Residence Inn breakfast and evening cocktail/snack service.  While I wish the eggs were real eggs (either they're powered eggs or just "wet") that was about the worst of it.  Outdoor pool is clean and the workout area is average size with the basics.  Staff is attentive and very courteous.If there had to be a negative, it would be with their preparedness of their "business center."  The printer ran out of ink and by the time I checked out six days later, they still had not figured out a way to get another ink cartridge.  Should have been an easy fix.  They did adapt and allow guests to use their office computer for printing needs.  Seems like it's a common problem as I walked across the parking lot to their sister Fairfield Inn and one of their two printers were out of ink too!Regardless, a good option in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r468435821-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>468435821</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Regular Residence Inn as any other in US. However, they were doing lot of maintenance activities and didnt give any notice to our travel team which created lot of inconvenience. We had to go to nearby hotel for breakfast, laundry, etc. The staff is courteous &amp; shuttle service is goodMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Regular Residence Inn as any other in US. However, they were doing lot of maintenance activities and didnt give any notice to our travel team which created lot of inconvenience. We had to go to nearby hotel for breakfast, laundry, etc. The staff is courteous &amp; shuttle service is goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r467125158-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>467125158</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Great Location for work in Plano!</t>
+  </si>
+  <si>
+    <t>The place is out in the back of beyond.. The only places close by are the Shops at Legacy and the Stonebriar Mall and everything else is a 20 minute drive. Fort Worth airport is a 25-30 min drive away so that's good. What really works though this the hospitality and the warmth of the people there. Sergio and Stacy at the front desk are the 2 most loveliest helpful people I met. Always ready with a smile and helpful attitude. The rooms are all studio and larger. The studio is perfect for one person with everything spaced out nicely... The hotel is highly recommended for those visiting for work in Plano as this is only a 7 minute drive away. One drawback though would be the noisy AC unit. Makes it difficult to sleep through until you get used to it in a couple of nights. The place only offers breakfast and occasional bitings in the evening... Other than that, you're on your own. The little Shop in the lobby stocks frozen pizzas etc for a night in but it may be better to take a drive to the multiple eateries nearby instead. Overall a good place!MoreShow less</t>
+  </si>
+  <si>
+    <t>The place is out in the back of beyond.. The only places close by are the Shops at Legacy and the Stonebriar Mall and everything else is a 20 minute drive. Fort Worth airport is a 25-30 min drive away so that's good. What really works though this the hospitality and the warmth of the people there. Sergio and Stacy at the front desk are the 2 most loveliest helpful people I met. Always ready with a smile and helpful attitude. The rooms are all studio and larger. The studio is perfect for one person with everything spaced out nicely... The hotel is highly recommended for those visiting for work in Plano as this is only a 7 minute drive away. One drawback though would be the noisy AC unit. Makes it difficult to sleep through until you get used to it in a couple of nights. The place only offers breakfast and occasional bitings in the evening... Other than that, you're on your own. The little Shop in the lobby stocks frozen pizzas etc for a night in but it may be better to take a drive to the multiple eateries nearby instead. Overall a good place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r457013297-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>457013297</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>Newly remodeled</t>
+  </si>
+  <si>
+    <t>We had a mini family reunion at the hotel. It was fantastic, tables in the breakfast area were perfect for night time games. Staff was great at accommodating individual needs. Hotel was clean, breakfast was good, nice firm beds. Location was perfect for shopping and activities. Tons of restaurants close by. Weekends are an excellent time for family travel. Rooms were quiet even  when we could hear people while we were in the halls. No complaints, we will definitely stay there again. Marriott is our "go to" hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>We had a mini family reunion at the hotel. It was fantastic, tables in the breakfast area were perfect for night time games. Staff was great at accommodating individual needs. Hotel was clean, breakfast was good, nice firm beds. Location was perfect for shopping and activities. Tons of restaurants close by. Weekends are an excellent time for family travel. Rooms were quiet even  when we could hear people while we were in the halls. No complaints, we will definitely stay there again. Marriott is our "go to" hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r441023843-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>441023843</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Renovations that are not on the website...</t>
+  </si>
+  <si>
+    <t>Call before reserving to make sure that the renovations are complete. We stayed were told at check in workers present 9-5 daytime only. It was 10:35 tonight and guys were in the room below us literally drilling. It sounded like drywall hanging. Absolutely ridiculous. If we were not traveling with small children we would have checked out immediately. We will be leaving this trip early because of this situation. We stayed here so we could cook for our family while relocating from out of state. We did report to the hotel staff, who got the drilling to stop, but the workers are still down there, working. If they were just working 9-5 I think it would be fine but they are not doing what they told us they were doing when we checked in. Lesson learned, easy to book on line, always call to see if they are doing any renovations first. They are dishonest and did not have this on their website, so until you show up you have no idea. Will be notifying Marriott Inc.MoreShow less</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Call before reserving to make sure that the renovations are complete. We stayed were told at check in workers present 9-5 daytime only. It was 10:35 tonight and guys were in the room below us literally drilling. It sounded like drywall hanging. Absolutely ridiculous. If we were not traveling with small children we would have checked out immediately. We will be leaving this trip early because of this situation. We stayed here so we could cook for our family while relocating from out of state. We did report to the hotel staff, who got the drilling to stop, but the workers are still down there, working. If they were just working 9-5 I think it would be fine but they are not doing what they told us they were doing when we checked in. Lesson learned, easy to book on line, always call to see if they are doing any renovations first. They are dishonest and did not have this on their website, so until you show up you have no idea. Will be notifying Marriott Inc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r432990813-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>432990813</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Disgusting.. We found roach and watched rat swimming in the pool. Old and run down</t>
+  </si>
+  <si>
+    <t>Disgusting! Roaches (check the photos)?  We also watched a rat swimming in the pool having a great time. Hotel is run down. Bathroom light did not work and we stayed here a couple of times (hoping it was just a fluke) only to find that each time the rooms smell like animal. We saw one room that had 3 dogs and a giant parrot. Is this hotel or a zoo?  We asked to have the light fixed and the roaches removed and no one ever showed up. Breakfast is not much better. Grease galore with fake scrambled eggs?   The hotel has old broken furnishings. Wait until they upgrade this to consider. 
+So in conclusion if you have a family please do yourself a favour and move on. Rats, Roaches and horrible service. Spoke to the General Manager (Mike) of the 3 hotels located in this spot and he was the most unpleasant person I have met in a hotel.  Just my opinion, but I would not recommend this hotel and I have spent nearly 200 days in Marriotts this year alone.  Needless to say this is one of (if not) the worse Residence Inns I have stayed at. Management is clearly no help either.
+Rate for Sunday to Monday today is 141 minimum. Someone is going to get taken advantage of in terms of value tonight. 
+Consider the Courtyard... next door at least the hotel is less than a year...Disgusting! Roaches (check the photos)?  We also watched a rat swimming in the pool having a great time. Hotel is run down. Bathroom light did not work and we stayed here a couple of times (hoping it was just a fluke) only to find that each time the rooms smell like animal. We saw one room that had 3 dogs and a giant parrot. Is this hotel or a zoo?  We asked to have the light fixed and the roaches removed and no one ever showed up. Breakfast is not much better. Grease galore with fake scrambled eggs?   The hotel has old broken furnishings. Wait until they upgrade this to consider. So in conclusion if you have a family please do yourself a favour and move on. Rats, Roaches and horrible service. Spoke to the General Manager (Mike) of the 3 hotels located in this spot and he was the most unpleasant person I have met in a hotel.  Just my opinion, but I would not recommend this hotel and I have spent nearly 200 days in Marriotts this year alone.  Needless to say this is one of (if not) the worse Residence Inns I have stayed at. Management is clearly no help either.Rate for Sunday to Monday today is 141 minimum. Someone is going to get taken advantage of in terms of value tonight. Consider the Courtyard... next door at least the hotel is less than a year old and this management firm has not had a chance to let that one go down hill yet. I love Marriotts. I just hated this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Disgusting! Roaches (check the photos)?  We also watched a rat swimming in the pool having a great time. Hotel is run down. Bathroom light did not work and we stayed here a couple of times (hoping it was just a fluke) only to find that each time the rooms smell like animal. We saw one room that had 3 dogs and a giant parrot. Is this hotel or a zoo?  We asked to have the light fixed and the roaches removed and no one ever showed up. Breakfast is not much better. Grease galore with fake scrambled eggs?   The hotel has old broken furnishings. Wait until they upgrade this to consider. 
+So in conclusion if you have a family please do yourself a favour and move on. Rats, Roaches and horrible service. Spoke to the General Manager (Mike) of the 3 hotels located in this spot and he was the most unpleasant person I have met in a hotel.  Just my opinion, but I would not recommend this hotel and I have spent nearly 200 days in Marriotts this year alone.  Needless to say this is one of (if not) the worse Residence Inns I have stayed at. Management is clearly no help either.
+Rate for Sunday to Monday today is 141 minimum. Someone is going to get taken advantage of in terms of value tonight. 
+Consider the Courtyard... next door at least the hotel is less than a year...Disgusting! Roaches (check the photos)?  We also watched a rat swimming in the pool having a great time. Hotel is run down. Bathroom light did not work and we stayed here a couple of times (hoping it was just a fluke) only to find that each time the rooms smell like animal. We saw one room that had 3 dogs and a giant parrot. Is this hotel or a zoo?  We asked to have the light fixed and the roaches removed and no one ever showed up. Breakfast is not much better. Grease galore with fake scrambled eggs?   The hotel has old broken furnishings. Wait until they upgrade this to consider. So in conclusion if you have a family please do yourself a favour and move on. Rats, Roaches and horrible service. Spoke to the General Manager (Mike) of the 3 hotels located in this spot and he was the most unpleasant person I have met in a hotel.  Just my opinion, but I would not recommend this hotel and I have spent nearly 200 days in Marriotts this year alone.  Needless to say this is one of (if not) the worse Residence Inns I have stayed at. Management is clearly no help either.Rate for Sunday to Monday today is 141 minimum. Someone is going to get taken advantage of in terms of value tonight. Consider the Courtyard... next door at least the hotel is less than a year old and this management firm has not had a chance to let that one go down hill yet. I love Marriotts. I just hated this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r412494878-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>412494878</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>A relief after tough day of travel</t>
+  </si>
+  <si>
+    <t>The front end clerks could not have been better. Such good service. Of course the room is what I expected and needed for this business trip. The Mix in the evening and the breakfast in the morning are better than expected. In fact, they are better than they need to be, if that makes sense.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>The front end clerks could not have been better. Such good service. Of course the room is what I expected and needed for this business trip. The Mix in the evening and the breakfast in the morning are better than expected. In fact, they are better than they need to be, if that makes sense.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r396225655-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>396225655</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Nice family spot</t>
+  </si>
+  <si>
+    <t>Spacious &amp; clean rooms, comfortable bed, top notch friendly staff.  Furniture OK but worn.  Fold out sofas rarely are comfortable in any hotel.  One of our kids slept on the sofa cushions &amp; the other on the floor.  Kitchen suites are very nice with full refrig &amp; stove with oven.  Pool clean.  Breakfast is a typical fare but well attended to by the  staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Spacious &amp; clean rooms, comfortable bed, top notch friendly staff.  Furniture OK but worn.  Fold out sofas rarely are comfortable in any hotel.  One of our kids slept on the sofa cushions &amp; the other on the floor.  Kitchen suites are very nice with full refrig &amp; stove with oven.  Pool clean.  Breakfast is a typical fare but well attended to by the  staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r387046194-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>387046194</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>Stayed in a 2 bedroom suite for a sisters weekend. Room was clean. Bed and bedding comfortable. Bathrooms were a little small. Breakfast was fine both mornings, no issues with selection or service. That was in spite of having multiple high school boys soccer teams staying there as well. Staff was extremely friendly. Great "Texas" hospitality. My only issue is the kitchen ware. A 2 bedroom suite should be stocked for the number of people it can accommodate. We only had 4 of everything.  Doesn't make sense in a room that is supposed to accommodate 6. While we only had 3 it did mean a lot of washing since we stayed in both nights for dinner. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Stayed in a 2 bedroom suite for a sisters weekend. Room was clean. Bed and bedding comfortable. Bathrooms were a little small. Breakfast was fine both mornings, no issues with selection or service. That was in spite of having multiple high school boys soccer teams staying there as well. Staff was extremely friendly. Great "Texas" hospitality. My only issue is the kitchen ware. A 2 bedroom suite should be stocked for the number of people it can accommodate. We only had 4 of everything.  Doesn't make sense in a room that is supposed to accommodate 6. While we only had 3 it did mean a lot of washing since we stayed in both nights for dinner. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r377665376-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>377665376</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Hoboterp</t>
+  </si>
+  <si>
+    <t>As someone who travels a good bit most breakfast bars look the same . Glad to write that the breakfast and happy hour in this location was very nice . The staff was very friendly and professional . The hotel is in great shape and very clean . But a rate of over $ 150.00 is a little high for this area .MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>As someone who travels a good bit most breakfast bars look the same . Glad to write that the breakfast and happy hour in this location was very nice . The staff was very friendly and professional . The hotel is in great shape and very clean . But a rate of over $ 150.00 is a little high for this area .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r369249952-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>369249952</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Good overall stay</t>
+  </si>
+  <si>
+    <t>Awesome breakfast with regular changes , awesome evening snacks n very nice room service too , surely will stay at same hotel next time I m in the town .. Quite near to legacy drive , 5 mins drive so ur office can be really near to this one .  Good value for money MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Awesome breakfast with regular changes , awesome evening snacks n very nice room service too , surely will stay at same hotel next time I m in the town .. Quite near to legacy drive , 5 mins drive so ur office can be really near to this one .  Good value for money More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r367283671-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>367283671</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>Stayed at this property to attend an outdoor country in Frisco Texas.  The staff was extremely friendly and helpful.  Only negative thing that caused me to rank them other than excellent is that the breakfast was below par.  Unfortunately they were out of a lot of things about an 1/2 hour before it ended.  However I would still recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this property to attend an outdoor country in Frisco Texas.  The staff was extremely friendly and helpful.  Only negative thing that caused me to rank them other than excellent is that the breakfast was below par.  Unfortunately they were out of a lot of things about an 1/2 hour before it ended.  However I would still recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r341678263-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>341678263</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Old and dirty</t>
+  </si>
+  <si>
+    <t>Upon check in my dish washer was still loaded up with the previous residence dirty dishes. I asked twice to wash them without prevail. I ended up washing dishes after receiving dish washer packets from the front desk. In the room the vinyl was pealing from the furniture. At breakfest the bacon was swimming in grease. The wifi " which was supposed to be high speed" was so slow I couldn't use FaceTime without the frame freezing every minute. Overall a bad stay but the good news there is better housing close by for the same price.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>mike c, Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Upon check in my dish washer was still loaded up with the previous residence dirty dishes. I asked twice to wash them without prevail. I ended up washing dishes after receiving dish washer packets from the front desk. In the room the vinyl was pealing from the furniture. At breakfest the bacon was swimming in grease. The wifi " which was supposed to be high speed" was so slow I couldn't use FaceTime without the frame freezing every minute. Overall a bad stay but the good news there is better housing close by for the same price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r340677107-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>340677107</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Modern and Clean</t>
+  </si>
+  <si>
+    <t>I understand that this is a new Residence Inn and it shows it's newness well. The place is extremely clean and well maintained with one of the most friendly staff's I have encountered. The room is typical of a Residence Inn and I love the layout. As a business traveler it is nice to have the extra room to stretch out and get business done. This hotel is also very convenient for conducting business in the Allen, McKinney, Plano and Frisco areas. My only complaint is that there are really no restaurants adjacent to the property. This is partly due to the newness of the three Marriott brands. There is property adjacent suitable for potential restaurant development so like all else in Texas, give it some time and the development will occur. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>I understand that this is a new Residence Inn and it shows it's newness well. The place is extremely clean and well maintained with one of the most friendly staff's I have encountered. The room is typical of a Residence Inn and I love the layout. As a business traveler it is nice to have the extra room to stretch out and get business done. This hotel is also very convenient for conducting business in the Allen, McKinney, Plano and Frisco areas. My only complaint is that there are really no restaurants adjacent to the property. This is partly due to the newness of the three Marriott brands. There is property adjacent suitable for potential restaurant development so like all else in Texas, give it some time and the development will occur. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r336300098-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>336300098</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient</t>
+  </si>
+  <si>
+    <t>This is our 3rd or 4th stay at this property.  We like the suite set up since we are here for the holidays with dogs for and extended stay.  If you like to hit the downstairs breakfast, there is always some different to offer for a hot dish along the standard breads, cereals and waffles.  The staff is very accommodating and we appreciate all their efforts.  My only concern on this trip was the cleaning of the floors.  We have 2 small dogs and when we enter a room we check under the bed if you can see under it and the rest of the room for anything they may put in their mouths.  On this trip we found a cap to a water bottle (choking hazard) under the bed and a cracker remnant alongside the kitchen table.  Everything else in the room and with the stay was satisfactory.  We will still book this place ion the future, close to family and plenty of shopping.  The whole 121 Toll corridor grows with new business every year we come down.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>This is our 3rd or 4th stay at this property.  We like the suite set up since we are here for the holidays with dogs for and extended stay.  If you like to hit the downstairs breakfast, there is always some different to offer for a hot dish along the standard breads, cereals and waffles.  The staff is very accommodating and we appreciate all their efforts.  My only concern on this trip was the cleaning of the floors.  We have 2 small dogs and when we enter a room we check under the bed if you can see under it and the rest of the room for anything they may put in their mouths.  On this trip we found a cap to a water bottle (choking hazard) under the bed and a cracker remnant alongside the kitchen table.  Everything else in the room and with the stay was satisfactory.  We will still book this place ion the future, close to family and plenty of shopping.  The whole 121 Toll corridor grows with new business every year we come down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r320934799-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>320934799</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Somewhere around a 3.8</t>
+  </si>
+  <si>
+    <t>Giving it a 4 because it is better than a 3 (average). It's hotel style, not an outdoor entrance like some Residence Inns. 4 stories, pool, whirlpool, well-maintained grounds and pool area. Evening snacks and beer and wine, very nice, and hot breakfast, sausages, bacon?, muffins, toast/breads, scrambled eggs, waffles, juices and coffee and tea and fruit mix. Also have a fire pit area with comfortable seating, though the fire pit was not working during my stay. 
+Stayed there 8 days and I must say my visit was a little underwhelming. The room was very nice, a studio suite, has sofabed, queen bed, full-size refrig and stovetop (no oven) and dishwasher.. NIce furnishings with desk/chair and small dining table/2 chairs. Dishes provided, though several missing items or just odd number, like 3 glasses, 3 bowls. But all in all the rooms are nice. Housekeeping staff is not thorough. Left sofabed partially closed, didn't change sheets of sofabed, also other signs of spills and such not cleaned up.
+Definitely had some intermittent tv reception issues. ‘Business Center” is actually one computer/printer in lobby area with no seating. The computer is also on a very high counter and if you wanted to use the computer for more than a few minutes, I guess you’d have to pull up one of the bar stools or use it standing up for an extended period.
+Regarding the staff, they are not friendly or unfriendly, just...Giving it a 4 because it is better than a 3 (average). It's hotel style, not an outdoor entrance like some Residence Inns. 4 stories, pool, whirlpool, well-maintained grounds and pool area. Evening snacks and beer and wine, very nice, and hot breakfast, sausages, bacon?, muffins, toast/breads, scrambled eggs, waffles, juices and coffee and tea and fruit mix. Also have a fire pit area with comfortable seating, though the fire pit was not working during my stay. Stayed there 8 days and I must say my visit was a little underwhelming. The room was very nice, a studio suite, has sofabed, queen bed, full-size refrig and stovetop (no oven) and dishwasher.. NIce furnishings with desk/chair and small dining table/2 chairs. Dishes provided, though several missing items or just odd number, like 3 glasses, 3 bowls. But all in all the rooms are nice. Housekeeping staff is not thorough. Left sofabed partially closed, didn't change sheets of sofabed, also other signs of spills and such not cleaned up.Definitely had some intermittent tv reception issues. ‘Business Center” is actually one computer/printer in lobby area with no seating. The computer is also on a very high counter and if you wanted to use the computer for more than a few minutes, I guess you’d have to pull up one of the bar stools or use it standing up for an extended period.Regarding the staff, they are not friendly or unfriendly, just polite I guess. One member though I met on final day was much more what I’ve come to expect from  staff at a  Marriott brand. That is Rey, a supervisor. Thanks for the warm hospitality. Also like that room was soundproof, there's a highway and construction very close by, but I did not hear a sound from either.None of these negative things I've pointed out are major, but just made for less than an absolute 4 rating. Might stay there again, but would also look into other nearby hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded November 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2015</t>
+  </si>
+  <si>
+    <t>Giving it a 4 because it is better than a 3 (average). It's hotel style, not an outdoor entrance like some Residence Inns. 4 stories, pool, whirlpool, well-maintained grounds and pool area. Evening snacks and beer and wine, very nice, and hot breakfast, sausages, bacon?, muffins, toast/breads, scrambled eggs, waffles, juices and coffee and tea and fruit mix. Also have a fire pit area with comfortable seating, though the fire pit was not working during my stay. 
+Stayed there 8 days and I must say my visit was a little underwhelming. The room was very nice, a studio suite, has sofabed, queen bed, full-size refrig and stovetop (no oven) and dishwasher.. NIce furnishings with desk/chair and small dining table/2 chairs. Dishes provided, though several missing items or just odd number, like 3 glasses, 3 bowls. But all in all the rooms are nice. Housekeeping staff is not thorough. Left sofabed partially closed, didn't change sheets of sofabed, also other signs of spills and such not cleaned up.
+Definitely had some intermittent tv reception issues. ‘Business Center” is actually one computer/printer in lobby area with no seating. The computer is also on a very high counter and if you wanted to use the computer for more than a few minutes, I guess you’d have to pull up one of the bar stools or use it standing up for an extended period.
+Regarding the staff, they are not friendly or unfriendly, just...Giving it a 4 because it is better than a 3 (average). It's hotel style, not an outdoor entrance like some Residence Inns. 4 stories, pool, whirlpool, well-maintained grounds and pool area. Evening snacks and beer and wine, very nice, and hot breakfast, sausages, bacon?, muffins, toast/breads, scrambled eggs, waffles, juices and coffee and tea and fruit mix. Also have a fire pit area with comfortable seating, though the fire pit was not working during my stay. Stayed there 8 days and I must say my visit was a little underwhelming. The room was very nice, a studio suite, has sofabed, queen bed, full-size refrig and stovetop (no oven) and dishwasher.. NIce furnishings with desk/chair and small dining table/2 chairs. Dishes provided, though several missing items or just odd number, like 3 glasses, 3 bowls. But all in all the rooms are nice. Housekeeping staff is not thorough. Left sofabed partially closed, didn't change sheets of sofabed, also other signs of spills and such not cleaned up.Definitely had some intermittent tv reception issues. ‘Business Center” is actually one computer/printer in lobby area with no seating. The computer is also on a very high counter and if you wanted to use the computer for more than a few minutes, I guess you’d have to pull up one of the bar stools or use it standing up for an extended period.Regarding the staff, they are not friendly or unfriendly, just polite I guess. One member though I met on final day was much more what I’ve come to expect from  staff at a  Marriott brand. That is Rey, a supervisor. Thanks for the warm hospitality. Also like that room was soundproof, there's a highway and construction very close by, but I did not hear a sound from either.None of these negative things I've pointed out are major, but just made for less than an absolute 4 rating. Might stay there again, but would also look into other nearby hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r318792343-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>318792343</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here. It is pretty centrally located for the area I needed to visit. The amenities at the hotel are nice and the rooms are comfortable and well maintained. The staff was always very nice and smiling and welcoming. Would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here. It is pretty centrally located for the area I needed to visit. The amenities at the hotel are nice and the rooms are comfortable and well maintained. The staff was always very nice and smiling and welcoming. Would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r318033870-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>318033870</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Perfect Property for Business Travel</t>
+  </si>
+  <si>
+    <t>This is the best Residence Inn I have ever stayed at. The property is 7 years old, but honestly it looked less than a year old. The management team and staff have done a phenomenal job with this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This is the best Residence Inn I have ever stayed at. The property is 7 years old, but honestly it looked less than a year old. The management team and staff have done a phenomenal job with this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r312185780-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>312185780</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>Every staff member was friendly, helpful and accommodating. The room was clean, well appointed, and extremely quiet!It's close to the tollway, yet also as close to access roads so you don't have to use the tollway. It's very convenient for getting to shopping at Stonebriar, dining at Shops of Legacy and visiting the different sports venues in Frisco. It's about a 35 - 40 minute drive to the airport by avoiding tollways depending on time of day. By tollway it would be about 20 minutes. Ample breakfast and it was kept well stocked and fresh.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>MCicutto, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Every staff member was friendly, helpful and accommodating. The room was clean, well appointed, and extremely quiet!It's close to the tollway, yet also as close to access roads so you don't have to use the tollway. It's very convenient for getting to shopping at Stonebriar, dining at Shops of Legacy and visiting the different sports venues in Frisco. It's about a 35 - 40 minute drive to the airport by avoiding tollways depending on time of day. By tollway it would be about 20 minutes. Ample breakfast and it was kept well stocked and fresh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r301245033-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>301245033</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Stayed two days and had a great time! The hotel is located next to Cascade Park, perfect place to walk your dog or play with the kids and just minutes from the Stonebriar mall. The staff is so welcoming and attentive to any needs.  I gotta mention Mrs. Elise, Mrs.Jasmine and Mr.Rey,Mrs.Stacy and Mr.Edgardo for their hard work and kindness. Breakfast was abundant with a variety of sausages, eggs, hash  brown patties, fruits, yogurts,french toast and waffles with a big supply of syrups, butters,jams,muffins and  whipped cream.Mrs.Iffat was very attentive and refilled anything that was running low, making sure everyone gets what  they need. Rooms were clean, comfortable. See attached pictures of how much extra service they provide including snacks on afternoons and drinks, barbecue cookouts and many more for absolutely free. They sure know how to treat their guests, making you feel like king/queen. Can't wait to visit and stay with  them again! MoreShow less</t>
+  </si>
+  <si>
+    <t>MCicutto, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Stayed two days and had a great time! The hotel is located next to Cascade Park, perfect place to walk your dog or play with the kids and just minutes from the Stonebriar mall. The staff is so welcoming and attentive to any needs.  I gotta mention Mrs. Elise, Mrs.Jasmine and Mr.Rey,Mrs.Stacy and Mr.Edgardo for their hard work and kindness. Breakfast was abundant with a variety of sausages, eggs, hash  brown patties, fruits, yogurts,french toast and waffles with a big supply of syrups, butters,jams,muffins and  whipped cream.Mrs.Iffat was very attentive and refilled anything that was running low, making sure everyone gets what  they need. Rooms were clean, comfortable. See attached pictures of how much extra service they provide including snacks on afternoons and drinks, barbecue cookouts and many more for absolutely free. They sure know how to treat their guests, making you feel like king/queen. Can't wait to visit and stay with  them again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r293936723-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>293936723</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Started Off My Move to Texas in a Horrible Manner</t>
+  </si>
+  <si>
+    <t>Had stayed at hotel multiple times as i had brought out my wife and our first child for several week long stays to look at homes and get a feel for where I want to live.  When I made the reservations, I INSISTED I needed the one bedroom suite as we need to have the ability to put our daughter down to sleep in the bedroom while my wife and I organized our million things to do after moving from CA.
+Had flight delay.  Called hotel and said we will arrive late and to hold our specific one bedroom suite.  Finally after extremely long flight delays, get to hotel at 11 PM with 6 suitcases, 3 year old dead tired crying, and wife 8 months pregnant and exhausted from the flight to find out they gave our room away!  Clerk was so disinterested and had no empathy even though he could see exhaustion on our faces.  Without any empathy says, "we don't guarantee specific rooms!"  
+We check into the small suite but I was so pissed off I called the 800 number and pretended that I'm driving by and need one bedroom suite for one night.  800 says they have the room and asks if I like to reserve.  I said no as I'm just pulling into hotel parking.  Ran up to front desk and asked the clerk why did he say he was sold out of one bedroom suites...Had stayed at hotel multiple times as i had brought out my wife and our first child for several week long stays to look at homes and get a feel for where I want to live.  When I made the reservations, I INSISTED I needed the one bedroom suite as we need to have the ability to put our daughter down to sleep in the bedroom while my wife and I organized our million things to do after moving from CA.Had flight delay.  Called hotel and said we will arrive late and to hold our specific one bedroom suite.  Finally after extremely long flight delays, get to hotel at 11 PM with 6 suitcases, 3 year old dead tired crying, and wife 8 months pregnant and exhausted from the flight to find out they gave our room away!  Clerk was so disinterested and had no empathy even though he could see exhaustion on our faces.  Without any empathy says, "we don't guarantee specific rooms!"  We check into the small suite but I was so pissed off I called the 800 number and pretended that I'm driving by and need one bedroom suite for one night.  800 says they have the room and asks if I like to reserve.  I said no as I'm just pulling into hotel parking.  Ran up to front desk and asked the clerk why did he say he was sold out of one bedroom suites when the 800 number said it was available.  He said he could not sell the one remaining one bedroom suite due to maintenance issues.Still did not give up.  Went back to room and called 800 number again and pretended that I was driving through and needed two one bedroom suites.  800 number reservation agent says she can accomodate us.  Finally got clerk to admit they had a huge group (30+ rooms) checking in tomorrow morning early in the morning and could not give away a one bedroom suite.Next morning I spoke to manager and he offered to comp one night of our 4 day stay but wasn't apologetic and didn't seem like he cared.  Moved me to one bedroom suite.  Thankfully our moving truck made it out a day early and so we checked out as soon as we could.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>MCicutto, Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Had stayed at hotel multiple times as i had brought out my wife and our first child for several week long stays to look at homes and get a feel for where I want to live.  When I made the reservations, I INSISTED I needed the one bedroom suite as we need to have the ability to put our daughter down to sleep in the bedroom while my wife and I organized our million things to do after moving from CA.
+Had flight delay.  Called hotel and said we will arrive late and to hold our specific one bedroom suite.  Finally after extremely long flight delays, get to hotel at 11 PM with 6 suitcases, 3 year old dead tired crying, and wife 8 months pregnant and exhausted from the flight to find out they gave our room away!  Clerk was so disinterested and had no empathy even though he could see exhaustion on our faces.  Without any empathy says, "we don't guarantee specific rooms!"  
+We check into the small suite but I was so pissed off I called the 800 number and pretended that I'm driving by and need one bedroom suite for one night.  800 says they have the room and asks if I like to reserve.  I said no as I'm just pulling into hotel parking.  Ran up to front desk and asked the clerk why did he say he was sold out of one bedroom suites...Had stayed at hotel multiple times as i had brought out my wife and our first child for several week long stays to look at homes and get a feel for where I want to live.  When I made the reservations, I INSISTED I needed the one bedroom suite as we need to have the ability to put our daughter down to sleep in the bedroom while my wife and I organized our million things to do after moving from CA.Had flight delay.  Called hotel and said we will arrive late and to hold our specific one bedroom suite.  Finally after extremely long flight delays, get to hotel at 11 PM with 6 suitcases, 3 year old dead tired crying, and wife 8 months pregnant and exhausted from the flight to find out they gave our room away!  Clerk was so disinterested and had no empathy even though he could see exhaustion on our faces.  Without any empathy says, "we don't guarantee specific rooms!"  We check into the small suite but I was so pissed off I called the 800 number and pretended that I'm driving by and need one bedroom suite for one night.  800 says they have the room and asks if I like to reserve.  I said no as I'm just pulling into hotel parking.  Ran up to front desk and asked the clerk why did he say he was sold out of one bedroom suites when the 800 number said it was available.  He said he could not sell the one remaining one bedroom suite due to maintenance issues.Still did not give up.  Went back to room and called 800 number again and pretended that I was driving through and needed two one bedroom suites.  800 number reservation agent says she can accomodate us.  Finally got clerk to admit they had a huge group (30+ rooms) checking in tomorrow morning early in the morning and could not give away a one bedroom suite.Next morning I spoke to manager and he offered to comp one night of our 4 day stay but wasn't apologetic and didn't seem like he cared.  Moved me to one bedroom suite.  Thankfully our moving truck made it out a day early and so we checked out as soon as we could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r286823254-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>286823254</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Grandkids</t>
+  </si>
+  <si>
+    <t>Great three day stay. 4 and 5 year old grandkids were with us.  Highly recommend.  Will be back again. Staff was great. We bq shrimp and steaks on their grill. Hotel had food in the evening.  I gave the staff the list of food we needed and they shopped for us without extra cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>MCicutto, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Great three day stay. 4 and 5 year old grandkids were with us.  Highly recommend.  Will be back again. Staff was great. We bq shrimp and steaks on their grill. Hotel had food in the evening.  I gave the staff the list of food we needed and they shopped for us without extra cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r279794376-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>279794376</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Comfortable stay, but breakfast...</t>
+  </si>
+  <si>
+    <t>We stayed memorial weekend for a basketball tournament for a night. The only comment I have to make is breakfast. There was an hour left for breakfast, and they were out of the eggs and a few other items. We and some other guests had to wait for a while for them to put more out. While we waited, I decided to get some waffles. No luck...they were also out of the batter. I had to tip the container to try and get what I could. There didn't seem to be a sense of urgency to get the food out for the hungry guests. This was our second time staying here. The first time was a few years back and I did notice from then and now is the increase in traffic due to the opening of the Nebraska Furniture Store.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>MCicutto, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>We stayed memorial weekend for a basketball tournament for a night. The only comment I have to make is breakfast. There was an hour left for breakfast, and they were out of the eggs and a few other items. We and some other guests had to wait for a while for them to put more out. While we waited, I decided to get some waffles. No luck...they were also out of the batter. I had to tip the container to try and get what I could. There didn't seem to be a sense of urgency to get the food out for the hungry guests. This was our second time staying here. The first time was a few years back and I did notice from then and now is the increase in traffic due to the opening of the Nebraska Furniture Store.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r279295151-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>279295151</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this Marriott property for a business trip. My room was clean and the front desk staff friendly. The free breakfast was an added bonus. I will most certainly stay at this hotel on my next trip to Plano.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this Marriott property for a business trip. My room was clean and the front desk staff friendly. The free breakfast was an added bonus. I will most certainly stay at this hotel on my next trip to Plano.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r274835227-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>274835227</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Residence Inn standards BUT if you plan to work from your room beware</t>
+  </si>
+  <si>
+    <t>This Residence Inn is in a good location for anyone visiting Plano. There is construction going on on the freeway by the hotel but it was not disturbing.If you are traveling for business beware that this hotel is pet-friendly and if you are unlucky enough there could be a lonely Fido in a room close by which would interfere with taking conference calls from your room. I reported the situation with the front desk but the response was that the hotel is pet-friendly and there was nothing to be done (I do love dogs but this was not the setting for a business stay). I only stayed for just 3 nights but if I had to stayed longer I would had moved to another hotel (there are several options in that area). Other than that the hotel has the regular Residence inn standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>MCicutto, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>This Residence Inn is in a good location for anyone visiting Plano. There is construction going on on the freeway by the hotel but it was not disturbing.If you are traveling for business beware that this hotel is pet-friendly and if you are unlucky enough there could be a lonely Fido in a room close by which would interfere with taking conference calls from your room. I reported the situation with the front desk but the response was that the hotel is pet-friendly and there was nothing to be done (I do love dogs but this was not the setting for a business stay). I only stayed for just 3 nights but if I had to stayed longer I would had moved to another hotel (there are several options in that area). Other than that the hotel has the regular Residence inn standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r273360463-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>273360463</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Nice, friendly, comfortable hotel outside of Dallas</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this hotel twice.  The staff is very friendly, and the accommodations are very comfortable.  Both studios and suites have a kitchen area, complete with refrigerator, sink, stove, even dishes.  The bedroom area is comfortable.  It's just a very nice place to stay.  Breakfast can be included, and overall, it has one of the better breakfasts offered by this kind of establishment.  The food was actually hot, and the waitstaff came to our table to make sure everything was all right--what a concept?  Overall, we enjoyed the stay both times we were in the Colony/Plano.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this hotel twice.  The staff is very friendly, and the accommodations are very comfortable.  Both studios and suites have a kitchen area, complete with refrigerator, sink, stove, even dishes.  The bedroom area is comfortable.  It's just a very nice place to stay.  Breakfast can be included, and overall, it has one of the better breakfasts offered by this kind of establishment.  The food was actually hot, and the waitstaff came to our table to make sure everything was all right--what a concept?  Overall, we enjoyed the stay both times we were in the Colony/Plano.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r268165510-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>268165510</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient and comfortable </t>
+  </si>
+  <si>
+    <t>This hotel is convenient to Plano, The Colony, McKinney, and Lewisville. Everything was clean and modern. The breakfast offered more than just bagels so we had sausage, eggs, potatoes, biscuits and gravy. I didn't see any fruit but I got out of the breakfast area as fast as I could because it was a small area and pretty busy on a Saturday morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This hotel is convenient to Plano, The Colony, McKinney, and Lewisville. Everything was clean and modern. The breakfast offered more than just bagels so we had sausage, eggs, potatoes, biscuits and gravy. I didn't see any fruit but I got out of the breakfast area as fast as I could because it was a small area and pretty busy on a Saturday morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r256279608-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>256279608</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>our 2nd stay</t>
+  </si>
+  <si>
+    <t>Worked out well here - easy to get to, lots of parking, close to lots in the area. Staff was very friendly/helpful, breakfasts lived up to the Marriott residence inn expectations. I have to agree that the beds were a little worn with slightly rough sheets. And it would be good if there was a night-light option for the bathroom (instead of the bright bathroom light-fan combo). But we four all slept fine overall, my kids very well actually. I was slightly disappointed the outdoor pool was not heated (the jacuzzi was though!) but the kids LOVED our trip and staying at the hotel, especially the make-your-own waffles. We will definitely come back b/c the hotel was so functional and decent.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>MCicutto, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded April 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2015</t>
+  </si>
+  <si>
+    <t>Worked out well here - easy to get to, lots of parking, close to lots in the area. Staff was very friendly/helpful, breakfasts lived up to the Marriott residence inn expectations. I have to agree that the beds were a little worn with slightly rough sheets. And it would be good if there was a night-light option for the bathroom (instead of the bright bathroom light-fan combo). But we four all slept fine overall, my kids very well actually. I was slightly disappointed the outdoor pool was not heated (the jacuzzi was though!) but the kids LOVED our trip and staying at the hotel, especially the make-your-own waffles. We will definitely come back b/c the hotel was so functional and decent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r253579232-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>253579232</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Super place</t>
+  </si>
+  <si>
+    <t>Made a very last minute booking, so smooth so easy. No hanging about when booking in, straight to a super big room with everything you could need. Went to the reception well after midnight as we arrived back after attending a wedding. The receptionist Miona was brilliant. She asked if there was anything she could do or get for us. She even got coffee for us, really welcome at such a late hour. She said she would be on all night and to call upon her if we needed to. This made us feel special and safe, (we were on the ground floor) knowing someone was there and offering to cater to any of our needs. Thank you Miona, hope to see you again when we book again. You are a real asset to your company.MoreShow less</t>
+  </si>
+  <si>
+    <t>MCicutto, Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded April 10, 2015</t>
+  </si>
+  <si>
+    <t>Made a very last minute booking, so smooth so easy. No hanging about when booking in, straight to a super big room with everything you could need. Went to the reception well after midnight as we arrived back after attending a wedding. The receptionist Miona was brilliant. She asked if there was anything she could do or get for us. She even got coffee for us, really welcome at such a late hour. She said she would be on all night and to call upon her if we needed to. This made us feel special and safe, (we were on the ground floor) knowing someone was there and offering to cater to any of our needs. Thank you Miona, hope to see you again when we book again. You are a real asset to your company.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r242631941-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>242631941</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>If only the beds were better...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel has so much potential. It's a beautiful newer hotel, but it's showing some wear. The beds were feeling quite worn, especially the mattress on the sleeper sofa. It was really unacceptable. Marriott really needs to step up the quality of the bed linens too. The sheets felt like sandpaper. I would expect that at a motel 6, not from a Marriott. After a few bad experiences with the brand lately, I'm left thinking Marriott is really going downhill. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r227689446-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>227689446</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Good hotel, clean, nice pool, nice gym and great breakdfast.  We booked the hotel for a wedding and I stayed for 4 days.  From my experience, every family enoyed their stay and the staff are very accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded September 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2014</t>
+  </si>
+  <si>
+    <t>Good hotel, clean, nice pool, nice gym and great breakdfast.  We booked the hotel for a wedding and I stayed for 4 days.  From my experience, every family enoyed their stay and the staff are very accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r226394423-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>226394423</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Great Place!</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and clean.  The staff were very accommodating and helpful with any questions or extra items we needed.  The pool was nice and breakfast was a lot better then previous hotels we encountered on our rive from NY to Texas.  We would def stay here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and clean.  The staff were very accommodating and helpful with any questions or extra items we needed.  The pool was nice and breakfast was a lot better then previous hotels we encountered on our rive from NY to Texas.  We would def stay here again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r220985356-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>220985356</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel. Funky smell in the hallways, but overall, it was pretty good. They had a great breakfast (included) and the room was a nice, one bedroom suite. Good value for the price. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Nice hotel. Funky smell in the hallways, but overall, it was pretty good. They had a great breakfast (included) and the room was a nice, one bedroom suite. Good value for the price. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r209460424-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>209460424</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t>This was my second stay at this hotel. We stayed here during the week of New Year's Eve and enjoyed our stay. The staff are very friendly and helpful and the rooms are clean, comfortable, and spacious. Even though the hotel is right off Highway 121, we didn't hear a lot of highway noise.The only downside we encountered is that the afternoon light meal/refreshment service was spotty. A couple of nights they didn't have any service at all and a couple of other nights, the food didn't match the menus they posted in the guest rooms.The hotel is a short drive from shopping and restaurants. We'll likely stay here again during our next visit to the area since this hotel offers a great price for their rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded June 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2014</t>
+  </si>
+  <si>
+    <t>This was my second stay at this hotel. We stayed here during the week of New Year's Eve and enjoyed our stay. The staff are very friendly and helpful and the rooms are clean, comfortable, and spacious. Even though the hotel is right off Highway 121, we didn't hear a lot of highway noise.The only downside we encountered is that the afternoon light meal/refreshment service was spotty. A couple of nights they didn't have any service at all and a couple of other nights, the food didn't match the menus they posted in the guest rooms.The hotel is a short drive from shopping and restaurants. We'll likely stay here again during our next visit to the area since this hotel offers a great price for their rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r191478665-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>191478665</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Nice  hotel, disappointing stay</t>
+  </si>
+  <si>
+    <t>Stayed one night for short family trip. Main issue with this hotel was that I reserved this hotel with points via a Marriott promotion for 1 free stay after 2 paid stays. Reserved a 1 bedroom suite but on arrival was told the one bedroom suite was not available due to unplanned reservation extensions from existing guests, so we would up with the "open" room suite (like to have the one bedroom suite due to family member who snores). This was acceptable, though disappointing to hear. The desk person on duty did comp us with complimentary items from The Marketplace and got his manager to also comp us some Marriott Reward points, which has already posted to our account, so this went a long way in the goodwill department to the hotels credit. On our one-night stay, we smelled cigarette smoke coming from another room, which was kind of irritating. The room we had was at least very spacious, if not very private and was very clean. However, we could not figure out the thermostat to the room for awhile, which made the room uncomfortably warm at first. Good continental breakfast. Overall okay stay that may have been better under different circumstances. In a fairly quiet area that is convenient to many shopping areas...beware of current road work however on the highways in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Stayed one night for short family trip. Main issue with this hotel was that I reserved this hotel with points via a Marriott promotion for 1 free stay after 2 paid stays. Reserved a 1 bedroom suite but on arrival was told the one bedroom suite was not available due to unplanned reservation extensions from existing guests, so we would up with the "open" room suite (like to have the one bedroom suite due to family member who snores). This was acceptable, though disappointing to hear. The desk person on duty did comp us with complimentary items from The Marketplace and got his manager to also comp us some Marriott Reward points, which has already posted to our account, so this went a long way in the goodwill department to the hotels credit. On our one-night stay, we smelled cigarette smoke coming from another room, which was kind of irritating. The room we had was at least very spacious, if not very private and was very clean. However, we could not figure out the thermostat to the room for awhile, which made the room uncomfortably warm at first. Good continental breakfast. Overall okay stay that may have been better under different circumstances. In a fairly quiet area that is convenient to many shopping areas...beware of current road work however on the highways in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r189392661-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>189392661</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>We stayed during the week of Christmas and were very pleased.  The suite was clean and comfortable, and the staff were very accommodating and friendly. This being a pet friendly hotel had quite a few dogs around, ours included. At one point we had a dog on another floor barking quite long which was starting to get our dogs worked up.  However, within a couple of minutes of making a call to the desk about the non stop barking, things quieted down. Breakfast was good and not the same day after day. We plan to book again on our next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We stayed during the week of Christmas and were very pleased.  The suite was clean and comfortable, and the staff were very accommodating and friendly. This being a pet friendly hotel had quite a few dogs around, ours included. At one point we had a dog on another floor barking quite long which was starting to get our dogs worked up.  However, within a couple of minutes of making a call to the desk about the non stop barking, things quieted down. Breakfast was good and not the same day after day. We plan to book again on our next stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r176466467-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>176466467</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>Cleanest Residence Inn ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We always stay residence inn. This one absolutely immaculate. It would have been a 5 across board except hand lotion was an empty and lights by bed only turn on/off on one side on bed. Otherwise perfect. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r171093038-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>171093038</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Great stay - clean rooms - nice staff</t>
+  </si>
+  <si>
+    <t>Came up to do a show this week so only in town one night.  Very pleased with my experience and had a great night sleep.  Great evening, loved my room - clean and quiet.  Staff also was very friendly and pleasant.  Would return with out a doubt.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r169105779-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>169105779</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Quiet, comfortable and great staff</t>
+  </si>
+  <si>
+    <t>We stayed here for two weeks with our three boys and four dogs after we lost our home to a tragic fire.  The staff were wonderful, friendly and very helpful.  They accommodated all of our needs and requests.  The breakfasts were tasty and had many choices.  The halls were quiet and the rooms were clean, comfortable and roomy.  The location is convenient to shopping, malls, restaurants.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r156674973-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>156674973</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>I had a nice stay at this hotel. The rooms were clean and the hotel has great access to the highway. The central location was the reason I picked this hotel and I had a nice stay during my week in DFW.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r153713527-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>153713527</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Nicely updated Residence Inn with a great staff and a good location.</t>
+  </si>
+  <si>
+    <t>Even though Residence Inn is not at the top of the Marriott food chain, this one made a great impression.  It has a great lobby and cafe area, very nice rooms and a wonderful staff along with a good location right on the 121 expressway.  I especially liked the exercise room, which was a little more spacious than most and that the treadmills and elliptical faced a mirrored wall rather than a blank wall; which is nice when you already hate running on a treadmill.  I would definitely stay here again the next time I'm in the Plano/Frisco/The Colony area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Even though Residence Inn is not at the top of the Marriott food chain, this one made a great impression.  It has a great lobby and cafe area, very nice rooms and a wonderful staff along with a good location right on the 121 expressway.  I especially liked the exercise room, which was a little more spacious than most and that the treadmills and elliptical faced a mirrored wall rather than a blank wall; which is nice when you already hate running on a treadmill.  I would definitely stay here again the next time I'm in the Plano/Frisco/The Colony area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r151929799-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>151929799</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>Home Away From Home!</t>
+  </si>
+  <si>
+    <t>My husband and I were recently relocated to the Dallas area and needed a place to stay while we looked for a house.  We ended up staying over 3 months (we were back and forth from our home and had several different stays in different rooms) and couldn't have found a better place to stay.  Between the friendly staff and the clean rooms, they had it all covered.  We also had other folks from our business stay there for 1-6 days at a time and they all had great things to say as well.  Pros:  1-yes, it's pet friendly, but we never heard or had any issues with dogs barking, smell, etc..  2-it has a manager's reception M-Th, complete with small salad bar, meal items (burgers, pasta dishes, etc) and wine/beer.  3-from the kitchen staff to the maintenance crew to the front desk, they were all professional and best of all, remarkably kind.  The only thing that I would say they could improve on is coming up with a varied hot breakfast menu.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded February 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I were recently relocated to the Dallas area and needed a place to stay while we looked for a house.  We ended up staying over 3 months (we were back and forth from our home and had several different stays in different rooms) and couldn't have found a better place to stay.  Between the friendly staff and the clean rooms, they had it all covered.  We also had other folks from our business stay there for 1-6 days at a time and they all had great things to say as well.  Pros:  1-yes, it's pet friendly, but we never heard or had any issues with dogs barking, smell, etc..  2-it has a manager's reception M-Th, complete with small salad bar, meal items (burgers, pasta dishes, etc) and wine/beer.  3-from the kitchen staff to the maintenance crew to the front desk, they were all professional and best of all, remarkably kind.  The only thing that I would say they could improve on is coming up with a varied hot breakfast menu.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r149687541-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>149687541</t>
+  </si>
+  <si>
+    <t>01/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>I stayed here on business for a few days. The hotel is next to a highway and you can be at Dallas airport in some 25 minutes (with little traffic). Exterior parking is included, as well as internet with good speed. Breakfast is too simple (even when comparing with other Residence Inn hotels), but it gets the job done.Overall a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded January 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here on business for a few days. The hotel is next to a highway and you can be at Dallas airport in some 25 minutes (with little traffic). Exterior parking is included, as well as internet with good speed. Breakfast is too simple (even when comparing with other Residence Inn hotels), but it gets the job done.Overall a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r148556284-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>148556284</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>Nice big rooms!</t>
+  </si>
+  <si>
+    <t>Great place.  Love how big the rooms were.  Very clean.  Front desk was helpful but seemed like they really didn't want to go out of their way to help.  Asked about restaurants near by and shopping and they didn't really give much info.  Great place to stay especially if you know the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, General Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded January 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2013</t>
+  </si>
+  <si>
+    <t>Great place.  Love how big the rooms were.  Very clean.  Front desk was helpful but seemed like they really didn't want to go out of their way to help.  Asked about restaurants near by and shopping and they didn't really give much info.  Great place to stay especially if you know the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r148366663-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>148366663</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>nice stay</t>
+  </si>
+  <si>
+    <t>very clean, rooms are comfortable.  Good managers reception in the evening.  At the breakfast, there was a very loud woman who kept yelling repeatedly she wanted butter (it was there the whole time) but I guess the manager on duty heard her and immediately came out to see what the problem was, so I was impressed with his responsiveness....the only thing was the front desk clerk on the evening shift was not pleasant at all, seemed totally bothered that we should be checking in.  Wouldn't say hello or anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>very clean, rooms are comfortable.  Good managers reception in the evening.  At the breakfast, there was a very loud woman who kept yelling repeatedly she wanted butter (it was there the whole time) but I guess the manager on duty heard her and immediately came out to see what the problem was, so I was impressed with his responsiveness....the only thing was the front desk clerk on the evening shift was not pleasant at all, seemed totally bothered that we should be checking in.  Wouldn't say hello or anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r139697776-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>139697776</t>
+  </si>
+  <si>
+    <t>09/07/2012</t>
+  </si>
+  <si>
+    <t>Good standard but newer residence inn if you need to be out this way</t>
+  </si>
+  <si>
+    <t>Rooms were large and clean - typical residence inn quality; only exception was quality of breakfast food which was subpar over all other marriotts where breakfast is offered. Food/dining around this area that is quality, known brands is tough- you're still in the middle of nowhere but perfectly convenient to the corp HQs in plano!MoreShow less</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded September 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2012</t>
+  </si>
+  <si>
+    <t>Rooms were large and clean - typical residence inn quality; only exception was quality of breakfast food which was subpar over all other marriotts where breakfast is offered. Food/dining around this area that is quality, known brands is tough- you're still in the middle of nowhere but perfectly convenient to the corp HQs in plano!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r139206785-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>139206785</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>Excellent.</t>
+  </si>
+  <si>
+    <t>I stayed here from the August 20-24th on a business trip and I had a wonderful experience.All of the staff I encountered was friendly and helpful.  Specifically I'd like to mention Martin at the front desk,.He went out of his way to make myself and my partners welcome and he even printed out some maps for us without even being asked.There was also a new General Manager, I cannot recall his name however.Top rate, right down to the "free rubber duckie" I got on my third night.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>ConcordHospitality, Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here from the August 20-24th on a business trip and I had a wonderful experience.All of the staff I encountered was friendly and helpful.  Specifically I'd like to mention Martin at the front desk,.He went out of his way to make myself and my partners welcome and he even printed out some maps for us without even being asked.There was also a new General Manager, I cannot recall his name however.Top rate, right down to the "free rubber duckie" I got on my third night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r139113944-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>139113944</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Location and Value</t>
+  </si>
+  <si>
+    <t>Clean, new, convenient location to Frisco, Plano, DFW Airport, Dallas Tollway access and also a straight shot to get to McKinney and Allen.  It is also convenient to one of my favorite stomping grounds - The Shops of Legacy where you can enjoy upscale entertainment or a night out that is geared toward couples and singles.  If you have little ones in tow the Stonebriar Mall area is very close with lots of options surrounding it like The Cheesecake Factory.  It has a modern/art like appeal that hinges on a New York City Chic flat/apt.  There are also social activities like a hamburger cookout at the pool - yes, there is a stainless steel gas grill.  They have a happy hour and a very inviting lobby and outdoor lounge pit if your group needs a place to come together in the evening.The staff is friendly and accomodating to your needs.  The only reason I did not give the hotel and excellent rating is that the Hilton Garden Inn beds are better.  But if you can sleep on a Hampton Inn bed you will be just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, new, convenient location to Frisco, Plano, DFW Airport, Dallas Tollway access and also a straight shot to get to McKinney and Allen.  It is also convenient to one of my favorite stomping grounds - The Shops of Legacy where you can enjoy upscale entertainment or a night out that is geared toward couples and singles.  If you have little ones in tow the Stonebriar Mall area is very close with lots of options surrounding it like The Cheesecake Factory.  It has a modern/art like appeal that hinges on a New York City Chic flat/apt.  There are also social activities like a hamburger cookout at the pool - yes, there is a stainless steel gas grill.  They have a happy hour and a very inviting lobby and outdoor lounge pit if your group needs a place to come together in the evening.The staff is friendly and accomodating to your needs.  The only reason I did not give the hotel and excellent rating is that the Hilton Garden Inn beds are better.  But if you can sleep on a Hampton Inn bed you will be just fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r121339255-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>121339255</t>
+  </si>
+  <si>
+    <t>12/02/2011</t>
+  </si>
+  <si>
+    <t>Very happy</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay.  The staff was great, especially Britten at the front desk.  I like how the bedroom is tucked away.  It is near a residential area so we had a place to walk. Plano is a short and direct drive away.  Overall, very happy.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r120972868-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>120972868</t>
+  </si>
+  <si>
+    <t>11/23/2011</t>
+  </si>
+  <si>
+    <t>3 month stay</t>
+  </si>
+  <si>
+    <t>Had to stay in a hotel for three months during relo.  Hotel and staff were great.  Clean rooms and nice family hotel.  Stayed with wife, three kids and two dogs.  Was a long stay but they made us feel comfortable and we really appreciated the quick service.  Thank you!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r117154517-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>117154517</t>
+  </si>
+  <si>
+    <t>08/23/2011</t>
+  </si>
+  <si>
+    <t>Excellent hospitatlity and rooms were perfect</t>
+  </si>
+  <si>
+    <t>I stayed here for a week Aug14th till 19th. I enjoyed my room very much. It was comfortable, quiet and had all the amenities i needed. I love the fact that the hotel (as it isn't close to any restaurants - only if you have a car) has a complimentary breakfast in the morning. there was enough variety too as to not get bored of it after a week. The Texas shaped waffles are delish ;) In the evening they also have a light fare with complimentary bud light on tap and red/white wine. The evening is a great time to gather and meet some of the guests after a long work day. 
+I have to commend Brittan, one of the concierge. My co-worker and I were wondering where we should go on our 1 day we had to site see. She recommended The Stockyards Station in Fort Worth. She told us that if we wanted to see Texan culture it was the place to go. She even went online to show us the website and provided us with a taxi/shuttle service to call. Thank you Brittan we enjoyed our day at the stockyards. Fort Worth was awesome!
+The pool was very clean and refreshing. We were able to swim up until 10PM. Nice way to cool down after a day in the heat:)
+TRANSPORTATION: The hotel does have a complimentary shuttle but only runs certain times of the day...I stayed here for a week Aug14th till 19th. I enjoyed my room very much. It was comfortable, quiet and had all the amenities i needed. I love the fact that the hotel (as it isn't close to any restaurants - only if you have a car) has a complimentary breakfast in the morning. there was enough variety too as to not get bored of it after a week. The Texas shaped waffles are delish ;) In the evening they also have a light fare with complimentary bud light on tap and red/white wine. The evening is a great time to gather and meet some of the guests after a long work day. I have to commend Brittan, one of the concierge. My co-worker and I were wondering where we should go on our 1 day we had to site see. She recommended The Stockyards Station in Fort Worth. She told us that if we wanted to see Texan culture it was the place to go. She even went online to show us the website and provided us with a taxi/shuttle service to call. Thank you Brittan we enjoyed our day at the stockyards. Fort Worth was awesome!The pool was very clean and refreshing. We were able to swim up until 10PM. Nice way to cool down after a day in the heat:)TRANSPORTATION: The hotel does have a complimentary shuttle but only runs certain times of the day and travels withing a 5mile radius. If you want to travel I would recommend renting a car at the airport. We used a shuttle service and cost us 85.00 from The hotel to Fort Worth stockyards 1 WAY. On the return it was late and we were only able to get a taxi and that was 95.00 with fuel surcharge and tip. The transportation guys are very friendly - great service! but if you are looking to save a bit of money I recommend a car rental. We were fortunate that a co-worker had a rental and could drive us to Parker Rd. in Plano to get on the DART - The train. You can pay $4.00 round trip for the day to travel from Plano to Dallas (West End) or even continue on into Fort Worth. Some great restaurants are located at Legacy Dr. Where the "shops of legacy" are - our favorites were Seasons 52,  Village Burger, Potbelly's, and Land &amp; Cattle in PlanoMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for a week Aug14th till 19th. I enjoyed my room very much. It was comfortable, quiet and had all the amenities i needed. I love the fact that the hotel (as it isn't close to any restaurants - only if you have a car) has a complimentary breakfast in the morning. there was enough variety too as to not get bored of it after a week. The Texas shaped waffles are delish ;) In the evening they also have a light fare with complimentary bud light on tap and red/white wine. The evening is a great time to gather and meet some of the guests after a long work day. 
+I have to commend Brittan, one of the concierge. My co-worker and I were wondering where we should go on our 1 day we had to site see. She recommended The Stockyards Station in Fort Worth. She told us that if we wanted to see Texan culture it was the place to go. She even went online to show us the website and provided us with a taxi/shuttle service to call. Thank you Brittan we enjoyed our day at the stockyards. Fort Worth was awesome!
+The pool was very clean and refreshing. We were able to swim up until 10PM. Nice way to cool down after a day in the heat:)
+TRANSPORTATION: The hotel does have a complimentary shuttle but only runs certain times of the day...I stayed here for a week Aug14th till 19th. I enjoyed my room very much. It was comfortable, quiet and had all the amenities i needed. I love the fact that the hotel (as it isn't close to any restaurants - only if you have a car) has a complimentary breakfast in the morning. there was enough variety too as to not get bored of it after a week. The Texas shaped waffles are delish ;) In the evening they also have a light fare with complimentary bud light on tap and red/white wine. The evening is a great time to gather and meet some of the guests after a long work day. I have to commend Brittan, one of the concierge. My co-worker and I were wondering where we should go on our 1 day we had to site see. She recommended The Stockyards Station in Fort Worth. She told us that if we wanted to see Texan culture it was the place to go. She even went online to show us the website and provided us with a taxi/shuttle service to call. Thank you Brittan we enjoyed our day at the stockyards. Fort Worth was awesome!The pool was very clean and refreshing. We were able to swim up until 10PM. Nice way to cool down after a day in the heat:)TRANSPORTATION: The hotel does have a complimentary shuttle but only runs certain times of the day and travels withing a 5mile radius. If you want to travel I would recommend renting a car at the airport. We used a shuttle service and cost us 85.00 from The hotel to Fort Worth stockyards 1 WAY. On the return it was late and we were only able to get a taxi and that was 95.00 with fuel surcharge and tip. The transportation guys are very friendly - great service! but if you are looking to save a bit of money I recommend a car rental. We were fortunate that a co-worker had a rental and could drive us to Parker Rd. in Plano to get on the DART - The train. You can pay $4.00 round trip for the day to travel from Plano to Dallas (West End) or even continue on into Fort Worth. Some great restaurants are located at Legacy Dr. Where the "shops of legacy" are - our favorites were Seasons 52,  Village Burger, Potbelly's, and Land &amp; Cattle in PlanoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r113996949-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>113996949</t>
+  </si>
+  <si>
+    <t>06/17/2011</t>
+  </si>
+  <si>
+    <t>like a NYC apartment</t>
+  </si>
+  <si>
+    <t>Nice finish, Great Staff . Very Very Clean.  Could be in a TV commerical</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r110534557-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>110534557</t>
+  </si>
+  <si>
+    <t>05/30/2011</t>
+  </si>
+  <si>
+    <t>Good Stay at Modern R.I., Close to Frito Lay Offices</t>
+  </si>
+  <si>
+    <t>March 2011.  I had not been to the Plano area for business for some time.  During  last visit I stayed at the Marriott Legacy Center (good stay) to be close to EDS/HP.  Plano has grown imensley since my last tirp and I have to say I did get lost driving around as I did not recognize the place. This stay I wanted to be close to Frito Lay to attend an Analytics Workshop.  I would say it was about 5-7 minute commute by car to Frito Lay.  Check in was delayed by no room availability at the time, apparently they told me there were a lot guests there for a Frito Lay HR Labor Relations conference.  So I drove to nearby Stonebriar mall for a bite to eat.  Returning to this property my room was available.  I received a fairly quiet room on one of the higher floors.  This is new modern Residence Inn that is essentially a box facility.  The furnishing are all contemporary but the room space is compact.  My room was clean and the service folks did a good job of cleaning the room every evening.  My bed was comfortable and everything in the room worked great.  Great to have full size fridge and a microwave.   There was penty of free parking.  The FitnessCenter had modern equipment which worked well.  Most days I had breakfast and lunch at nearby Frito Lay for my business.  One day I...March 2011.  I had not been to the Plano area for business for some time.  During  last visit I stayed at the Marriott Legacy Center (good stay) to be close to EDS/HP.  Plano has grown imensley since my last tirp and I have to say I did get lost driving around as I did not recognize the place. This stay I wanted to be close to Frito Lay to attend an Analytics Workshop.  I would say it was about 5-7 minute commute by car to Frito Lay.  Check in was delayed by no room availability at the time, apparently they told me there were a lot guests there for a Frito Lay HR Labor Relations conference.  So I drove to nearby Stonebriar mall for a bite to eat.  Returning to this property my room was available.  I received a fairly quiet room on one of the higher floors.  This is new modern Residence Inn that is essentially a box facility.  The furnishing are all contemporary but the room space is compact.  My room was clean and the service folks did a good job of cleaning the room every evening.  My bed was comfortable and everything in the room worked great.  Great to have full size fridge and a microwave.   There was penty of free parking.  The FitnessCenter had modern equipment which worked well.  Most days I had breakfast and lunch at nearby Frito Lay for my business.  One day I did try the complimentary breakfast and it was so so.  Most folks working in the property were friendly but some were not.  Earlier in the week I stayed the Marriott Suties Market Center near Dallas those folks were more friendly and welcoming.  This a Fairfield Inn next door.  No places to eat nearby but if you have a car, then there are several nearby choices for quick bite to eat or you can go further to the Stonebriar Mall.  The return drive to DFW was fairly quick.  if you're in the Plano area visiting and your needs require a microwave and fridge, then I recommend this property if you can get a good value.  I believe I paid around $110.00 per night and at that rate is was excellent value.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>March 2011.  I had not been to the Plano area for business for some time.  During  last visit I stayed at the Marriott Legacy Center (good stay) to be close to EDS/HP.  Plano has grown imensley since my last tirp and I have to say I did get lost driving around as I did not recognize the place. This stay I wanted to be close to Frito Lay to attend an Analytics Workshop.  I would say it was about 5-7 minute commute by car to Frito Lay.  Check in was delayed by no room availability at the time, apparently they told me there were a lot guests there for a Frito Lay HR Labor Relations conference.  So I drove to nearby Stonebriar mall for a bite to eat.  Returning to this property my room was available.  I received a fairly quiet room on one of the higher floors.  This is new modern Residence Inn that is essentially a box facility.  The furnishing are all contemporary but the room space is compact.  My room was clean and the service folks did a good job of cleaning the room every evening.  My bed was comfortable and everything in the room worked great.  Great to have full size fridge and a microwave.   There was penty of free parking.  The FitnessCenter had modern equipment which worked well.  Most days I had breakfast and lunch at nearby Frito Lay for my business.  One day I...March 2011.  I had not been to the Plano area for business for some time.  During  last visit I stayed at the Marriott Legacy Center (good stay) to be close to EDS/HP.  Plano has grown imensley since my last tirp and I have to say I did get lost driving around as I did not recognize the place. This stay I wanted to be close to Frito Lay to attend an Analytics Workshop.  I would say it was about 5-7 minute commute by car to Frito Lay.  Check in was delayed by no room availability at the time, apparently they told me there were a lot guests there for a Frito Lay HR Labor Relations conference.  So I drove to nearby Stonebriar mall for a bite to eat.  Returning to this property my room was available.  I received a fairly quiet room on one of the higher floors.  This is new modern Residence Inn that is essentially a box facility.  The furnishing are all contemporary but the room space is compact.  My room was clean and the service folks did a good job of cleaning the room every evening.  My bed was comfortable and everything in the room worked great.  Great to have full size fridge and a microwave.   There was penty of free parking.  The FitnessCenter had modern equipment which worked well.  Most days I had breakfast and lunch at nearby Frito Lay for my business.  One day I did try the complimentary breakfast and it was so so.  Most folks working in the property were friendly but some were not.  Earlier in the week I stayed the Marriott Suties Market Center near Dallas those folks were more friendly and welcoming.  This a Fairfield Inn next door.  No places to eat nearby but if you have a car, then there are several nearby choices for quick bite to eat or you can go further to the Stonebriar Mall.  The return drive to DFW was fairly quick.  if you're in the Plano area visiting and your needs require a microwave and fridge, then I recommend this property if you can get a good value.  I believe I paid around $110.00 per night and at that rate is was excellent value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r109252256-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>109252256</t>
+  </si>
+  <si>
+    <t>05/21/2011</t>
+  </si>
+  <si>
+    <t>Will overbook--Call Ahead</t>
+  </si>
+  <si>
+    <t>We stayed at this property two years ago. It was so wonderful that we wanted to stay here for our Spring Break. Upon arrival, they checked us in early, but when we got to our one bedroom suite, it was a handicap room. With a bathroom as big as the kitchen and no dressers for storage, we wanted another room. They said we might be able to move the next day. With three little kids and a bunch of stuff, at $170 a night, we decided we did not want to stay. They did not apologize. It was such a letdown. Call ahead if you have an arrival during the week to ensure that they won't place in a handicapped suite if you don't need one. The management acted as if this is completely acceptable. They never even offered us any concession for the possible inconvenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this property two years ago. It was so wonderful that we wanted to stay here for our Spring Break. Upon arrival, they checked us in early, but when we got to our one bedroom suite, it was a handicap room. With a bathroom as big as the kitchen and no dressers for storage, we wanted another room. They said we might be able to move the next day. With three little kids and a bunch of stuff, at $170 a night, we decided we did not want to stay. They did not apologize. It was such a letdown. Call ahead if you have an arrival during the week to ensure that they won't place in a handicapped suite if you don't need one. The management acted as if this is completely acceptable. They never even offered us any concession for the possible inconvenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r103107335-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>103107335</t>
+  </si>
+  <si>
+    <t>04/06/2011</t>
+  </si>
+  <si>
+    <t>Great hotel as a base</t>
+  </si>
+  <si>
+    <t>I travel to Dallas every week for work but brought my family along for spring break.  I know the Plano / Frisco area well so wanted to stay somewhere with separate bedrooms.  This hotel fit the bill.The hotel was very clean, especially the rooms.  The staff was very friendly and helpful.  The beds were comfortable.Its a new hotel (in the last year, I believe) so this helps!The only negatives were the pool needed a good cleaning.  Granted it was VERY windy when we were there and only in the 80s so maybe they don't clean it until it warms up.I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>dheinlein, Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded April 8, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2011</t>
+  </si>
+  <si>
+    <t>I travel to Dallas every week for work but brought my family along for spring break.  I know the Plano / Frisco area well so wanted to stay somewhere with separate bedrooms.  This hotel fit the bill.The hotel was very clean, especially the rooms.  The staff was very friendly and helpful.  The beds were comfortable.Its a new hotel (in the last year, I believe) so this helps!The only negatives were the pool needed a good cleaning.  Granted it was VERY windy when we were there and only in the 80s so maybe they don't clean it until it warms up.I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r99334298-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>99334298</t>
+  </si>
+  <si>
+    <t>03/07/2011</t>
+  </si>
+  <si>
+    <t>Comfortable, modern, spacious and quiet room let us sleep and relax.</t>
+  </si>
+  <si>
+    <t>We stayed in a one bedroom suite over the weekend at a great rate.  The suite was very spacious with a full kitchen, a table and 2 chairs, a desk, a small sofa and easy chair in the main room.  The flat screen TV received some HD channels allowing us to watch football comfortably.  The bed was also very comfortable, and the bath could be accessed without going through the bedroom, which was great when one of us went to bed early.  We slept well. The hotel wasn't crowded, but the suite was also at the end of the hall, and the bedroom protected from any noise.  Everything was spotless.  The hotel is located along a major road, but you have to get in the car to find restaurants and shopping. Breakfast was ample, and we particularly appreciated the free newspapers available even on the weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>We stayed in a one bedroom suite over the weekend at a great rate.  The suite was very spacious with a full kitchen, a table and 2 chairs, a desk, a small sofa and easy chair in the main room.  The flat screen TV received some HD channels allowing us to watch football comfortably.  The bed was also very comfortable, and the bath could be accessed without going through the bedroom, which was great when one of us went to bed early.  We slept well. The hotel wasn't crowded, but the suite was also at the end of the hall, and the bedroom protected from any noise.  Everything was spotless.  The hotel is located along a major road, but you have to get in the car to find restaurants and shopping. Breakfast was ample, and we particularly appreciated the free newspapers available even on the weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r96725626-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>96725626</t>
+  </si>
+  <si>
+    <t>02/15/2011</t>
+  </si>
+  <si>
+    <t>Super Room for a Great Price</t>
+  </si>
+  <si>
+    <t>I liked this hotel and would suggest this hotel to others. I'm a very simple person with basic needs: cleanliness, a decent sized room, quietness, high speed internet, and microwave and fridge in the room. This hotel met my needs. Price was great. There are no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I liked this hotel and would suggest this hotel to others. I'm a very simple person with basic needs: cleanliness, a decent sized room, quietness, high speed internet, and microwave and fridge in the room. This hotel met my needs. Price was great. There are no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r93391070-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>93391070</t>
+  </si>
+  <si>
+    <t>01/17/2011</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this Residence Inn of a business trip this past week.This Hotel is clean, bright, and has great access.The staff is very friendly and helpful. The room was large, and comfortable. Breakfast was a real treat, they offered everything would would want from hot to cold foods. We look forward to staying here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r77545694-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>77545694</t>
+  </si>
+  <si>
+    <t>08/30/2010</t>
+  </si>
+  <si>
+    <t>The best hotel in its class</t>
+  </si>
+  <si>
+    <t>I stayed in the Residence Inn, The Colony for around 4 months from Apr 10-July 10, and it was the most enjoyable stay at any hotel so far. The buiding is new, all the appliances were immaculate, the room size was good. Best part was the food quality and variety they offered during breakfast and evening social hours. Cleaning serivce was nice, and the staff was very amiable and friendly. ELSA,  Director of Sales was very helpful while we stayed, she used to take our feedback regarding food and other stuff, she was like a friend and gelled up very nicely with all of us. Pool, Spa, Gym everything was just great. I would recommend this hotel to everyone and would stay if i ever go back to Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>I stayed in the Residence Inn, The Colony for around 4 months from Apr 10-July 10, and it was the most enjoyable stay at any hotel so far. The buiding is new, all the appliances were immaculate, the room size was good. Best part was the food quality and variety they offered during breakfast and evening social hours. Cleaning serivce was nice, and the staff was very amiable and friendly. ELSA,  Director of Sales was very helpful while we stayed, she used to take our feedback regarding food and other stuff, she was like a friend and gelled up very nicely with all of us. Pool, Spa, Gym everything was just great. I would recommend this hotel to everyone and would stay if i ever go back to Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r76964060-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>76964060</t>
+  </si>
+  <si>
+    <t>08/26/2010</t>
+  </si>
+  <si>
+    <t>Excellent hotel, Highly Recommended</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 months between April and July 2010. The hotel is excellent and the staff are very friendly &amp; helpful. The room was very spacious &amp; for the price was a steal. The happy hour every weekday evening is particularly attractive and gives a chance to mingle with other guests. The fitness center and the pool are neatly maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>dheinlein, Manager at Residence Inn Dallas Plano/The Colony, responded to this reviewResponded August 31, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2010</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 months between April and July 2010. The hotel is excellent and the staff are very friendly &amp; helpful. The room was very spacious &amp; for the price was a steal. The happy hour every weekday evening is particularly attractive and gives a chance to mingle with other guests. The fitness center and the pool are neatly maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r71558556-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>71558556</t>
+  </si>
+  <si>
+    <t>07/19/2010</t>
+  </si>
+  <si>
+    <t>The best hotel I've stayed in by far</t>
+  </si>
+  <si>
+    <t>Because of my work I've had to travel to many different places and have stayed in many different hotels and this is by far the best hotel that I've stayed in. The service is excellent, the food is great and teh amenities are awesome. The manager here -  Elsa Martinez really took care of everything. If you need to extend your stay or need to make changes to your plans, the staff here will really help you out. Kudos to Dominica, Greg and Katrina for putting in all the effort to make this stay memorable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r71176419-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>71176419</t>
+  </si>
+  <si>
+    <t>07/16/2010</t>
+  </si>
+  <si>
+    <t>The best stay I've had</t>
+  </si>
+  <si>
+    <t>I was at this residence inn for an extended stay of almost 2 months for business. It was one of the best hotel I've stayed in. The staff was great. Elsa Martinez, who is the manager, was very accommodative and extremely helpful to make our stay better. Katrina and Greg who also worked at the front desk were very helpful and extremely friendly. I would highly recommend this place to anyone, either work or leisure for anyone visiting Plano, the colony or any of the nearby areas. The hotel itself is almost brand new, only a year old and the rooms are big, spacious and the appliances are great. The lounge area is great to hang out, especially during their daily happy hour. I am definitely looking forward to my next trip here, and staying at this place again. :) Thank you to everyone at this Residence Inn for making my stay this comfortable and wonderful. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I was at this residence inn for an extended stay of almost 2 months for business. It was one of the best hotel I've stayed in. The staff was great. Elsa Martinez, who is the manager, was very accommodative and extremely helpful to make our stay better. Katrina and Greg who also worked at the front desk were very helpful and extremely friendly. I would highly recommend this place to anyone, either work or leisure for anyone visiting Plano, the colony or any of the nearby areas. The hotel itself is almost brand new, only a year old and the rooms are big, spacious and the appliances are great. The lounge area is great to hang out, especially during their daily happy hour. I am definitely looking forward to my next trip here, and staying at this place again. :) Thank you to everyone at this Residence Inn for making my stay this comfortable and wonderful. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r63367700-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>63367700</t>
+  </si>
+  <si>
+    <t>05/05/2010</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>Everyone associated with the hotel has bent over backwards to make my ext ended stay enjoyable. My son and I are here for 1.5 months waiting to move to Korea after his graduation. Although I couldn't afford the 1 bedroom suite, the king suite is extremely nice. We have been treated like royality and I would definitely recommend this hotel to everyone. The only thing negative that I can say is that the beds need to be a little softer. It is like sleeping on a board. But if that is all I have to deal with, then that is a minor thing compared to the other area hotels.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2406,4903 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>228</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>229</v>
+      </c>
+      <c r="X23" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>237</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>229</v>
+      </c>
+      <c r="X24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>244</v>
+      </c>
+      <c r="X25" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>268</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>269</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>270</v>
+      </c>
+      <c r="X28" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" t="s">
+        <v>275</v>
+      </c>
+      <c r="K29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>278</v>
+      </c>
+      <c r="O29" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>279</v>
+      </c>
+      <c r="X29" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>278</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>279</v>
+      </c>
+      <c r="X30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>293</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>279</v>
+      </c>
+      <c r="X31" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>301</v>
+      </c>
+      <c r="X32" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J33" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>300</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>309</v>
+      </c>
+      <c r="X33" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>318</v>
+      </c>
+      <c r="X34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>336</v>
+      </c>
+      <c r="X36" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>339</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>340</v>
+      </c>
+      <c r="J37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" t="s">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s">
+        <v>343</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>344</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>336</v>
+      </c>
+      <c r="X37" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>335</v>
+      </c>
+      <c r="O39" t="s">
+        <v>141</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>352</v>
+      </c>
+      <c r="X39" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>361</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>362</v>
+      </c>
+      <c r="J40" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" t="s">
+        <v>364</v>
+      </c>
+      <c r="L40" t="s">
+        <v>365</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>366</v>
+      </c>
+      <c r="O40" t="s">
+        <v>141</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>352</v>
+      </c>
+      <c r="X40" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>374</v>
+      </c>
+      <c r="X41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>351</v>
+      </c>
+      <c r="O42" t="s">
+        <v>141</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>382</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>385</v>
+      </c>
+      <c r="J43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" t="s">
+        <v>391</v>
+      </c>
+      <c r="K44" t="s">
+        <v>392</v>
+      </c>
+      <c r="L44" t="s">
+        <v>393</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>317</v>
+      </c>
+      <c r="O44" t="s">
+        <v>141</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>394</v>
+      </c>
+      <c r="X44" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>397</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>398</v>
+      </c>
+      <c r="J45" t="s">
+        <v>399</v>
+      </c>
+      <c r="K45" t="s">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s">
+        <v>401</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>317</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>402</v>
+      </c>
+      <c r="X45" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>317</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>410</v>
+      </c>
+      <c r="X46" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>413</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>414</v>
+      </c>
+      <c r="J47" t="s">
+        <v>415</v>
+      </c>
+      <c r="K47" t="s">
+        <v>416</v>
+      </c>
+      <c r="L47" t="s">
+        <v>417</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>418</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>419</v>
+      </c>
+      <c r="X47" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>422</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>423</v>
+      </c>
+      <c r="J48" t="s">
+        <v>424</v>
+      </c>
+      <c r="K48" t="s">
+        <v>425</v>
+      </c>
+      <c r="L48" t="s">
+        <v>426</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>418</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>427</v>
+      </c>
+      <c r="X48" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>430</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>431</v>
+      </c>
+      <c r="J49" t="s">
+        <v>432</v>
+      </c>
+      <c r="K49" t="s">
+        <v>433</v>
+      </c>
+      <c r="L49" t="s">
+        <v>434</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>435</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>427</v>
+      </c>
+      <c r="X49" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>437</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>438</v>
+      </c>
+      <c r="J50" t="s">
+        <v>439</v>
+      </c>
+      <c r="K50" t="s">
+        <v>440</v>
+      </c>
+      <c r="L50" t="s">
+        <v>441</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>442</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>443</v>
+      </c>
+      <c r="J51" t="s">
+        <v>444</v>
+      </c>
+      <c r="K51" t="s">
+        <v>445</v>
+      </c>
+      <c r="L51" t="s">
+        <v>446</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>447</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>448</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>449</v>
+      </c>
+      <c r="J52" t="s">
+        <v>450</v>
+      </c>
+      <c r="K52" t="s">
+        <v>451</v>
+      </c>
+      <c r="L52" t="s">
+        <v>452</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>453</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>454</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>455</v>
+      </c>
+      <c r="J53" t="s">
+        <v>456</v>
+      </c>
+      <c r="K53" t="s">
+        <v>408</v>
+      </c>
+      <c r="L53" t="s">
+        <v>457</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>458</v>
+      </c>
+      <c r="O53" t="s">
+        <v>141</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>459</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>460</v>
+      </c>
+      <c r="J54" t="s">
+        <v>461</v>
+      </c>
+      <c r="K54" t="s">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s">
+        <v>463</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>464</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>465</v>
+      </c>
+      <c r="X54" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>468</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>469</v>
+      </c>
+      <c r="J55" t="s">
+        <v>470</v>
+      </c>
+      <c r="K55" t="s">
+        <v>471</v>
+      </c>
+      <c r="L55" t="s">
+        <v>472</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>473</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>474</v>
+      </c>
+      <c r="X55" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>477</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>478</v>
+      </c>
+      <c r="J56" t="s">
+        <v>479</v>
+      </c>
+      <c r="K56" t="s">
+        <v>480</v>
+      </c>
+      <c r="L56" t="s">
+        <v>481</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>473</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>482</v>
+      </c>
+      <c r="X56" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>485</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>486</v>
+      </c>
+      <c r="J57" t="s">
+        <v>487</v>
+      </c>
+      <c r="K57" t="s">
+        <v>488</v>
+      </c>
+      <c r="L57" t="s">
+        <v>489</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>490</v>
+      </c>
+      <c r="X57" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>494</v>
+      </c>
+      <c r="J58" t="s">
+        <v>495</v>
+      </c>
+      <c r="K58" t="s">
+        <v>496</v>
+      </c>
+      <c r="L58" t="s">
+        <v>497</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>498</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>490</v>
+      </c>
+      <c r="X58" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>500</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>501</v>
+      </c>
+      <c r="J59" t="s">
+        <v>502</v>
+      </c>
+      <c r="K59" t="s">
+        <v>503</v>
+      </c>
+      <c r="L59" t="s">
+        <v>504</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>505</v>
+      </c>
+      <c r="X59" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>508</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>509</v>
+      </c>
+      <c r="J60" t="s">
+        <v>510</v>
+      </c>
+      <c r="K60" t="s">
+        <v>511</v>
+      </c>
+      <c r="L60" t="s">
+        <v>512</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>513</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>514</v>
+      </c>
+      <c r="X60" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>517</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>518</v>
+      </c>
+      <c r="J61" t="s">
+        <v>519</v>
+      </c>
+      <c r="K61" t="s">
+        <v>520</v>
+      </c>
+      <c r="L61" t="s">
+        <v>521</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>513</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>514</v>
+      </c>
+      <c r="X61" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>523</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>524</v>
+      </c>
+      <c r="J62" t="s">
+        <v>525</v>
+      </c>
+      <c r="K62" t="s">
+        <v>526</v>
+      </c>
+      <c r="L62" t="s">
+        <v>527</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>528</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>529</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>530</v>
+      </c>
+      <c r="J63" t="s">
+        <v>531</v>
+      </c>
+      <c r="K63" t="s">
+        <v>532</v>
+      </c>
+      <c r="L63" t="s">
+        <v>533</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>534</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>535</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>536</v>
+      </c>
+      <c r="J64" t="s">
+        <v>537</v>
+      </c>
+      <c r="K64" t="s">
+        <v>538</v>
+      </c>
+      <c r="L64" t="s">
+        <v>539</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>540</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>542</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>543</v>
+      </c>
+      <c r="J65" t="s">
+        <v>544</v>
+      </c>
+      <c r="K65" t="s">
+        <v>545</v>
+      </c>
+      <c r="L65" t="s">
+        <v>546</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>547</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>548</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>549</v>
+      </c>
+      <c r="J66" t="s">
+        <v>550</v>
+      </c>
+      <c r="K66" t="s">
+        <v>551</v>
+      </c>
+      <c r="L66" t="s">
+        <v>552</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>553</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>555</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>556</v>
+      </c>
+      <c r="J67" t="s">
+        <v>557</v>
+      </c>
+      <c r="K67" t="s">
+        <v>558</v>
+      </c>
+      <c r="L67" t="s">
+        <v>559</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>553</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>561</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>562</v>
+      </c>
+      <c r="J68" t="s">
+        <v>563</v>
+      </c>
+      <c r="K68" t="s">
+        <v>564</v>
+      </c>
+      <c r="L68" t="s">
+        <v>565</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>566</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>567</v>
+      </c>
+      <c r="X68" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>570</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>571</v>
+      </c>
+      <c r="J69" t="s">
+        <v>572</v>
+      </c>
+      <c r="K69" t="s">
+        <v>573</v>
+      </c>
+      <c r="L69" t="s">
+        <v>574</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>575</v>
+      </c>
+      <c r="O69" t="s">
+        <v>141</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>567</v>
+      </c>
+      <c r="X69" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>577</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>578</v>
+      </c>
+      <c r="J70" t="s">
+        <v>579</v>
+      </c>
+      <c r="K70" t="s">
+        <v>580</v>
+      </c>
+      <c r="L70" t="s">
+        <v>581</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>582</v>
+      </c>
+      <c r="O70" t="s">
+        <v>134</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>567</v>
+      </c>
+      <c r="X70" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>584</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>585</v>
+      </c>
+      <c r="J71" t="s">
+        <v>586</v>
+      </c>
+      <c r="K71" t="s">
+        <v>587</v>
+      </c>
+      <c r="L71" t="s">
+        <v>588</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>575</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>589</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>590</v>
+      </c>
+      <c r="J72" t="s">
+        <v>591</v>
+      </c>
+      <c r="K72" t="s">
+        <v>592</v>
+      </c>
+      <c r="L72" t="s">
+        <v>593</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>594</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>596</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>597</v>
+      </c>
+      <c r="J73" t="s">
+        <v>598</v>
+      </c>
+      <c r="K73" t="s">
+        <v>599</v>
+      </c>
+      <c r="L73" t="s">
+        <v>600</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>601</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>602</v>
+      </c>
+      <c r="X73" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>605</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>606</v>
+      </c>
+      <c r="J74" t="s">
+        <v>607</v>
+      </c>
+      <c r="K74" t="s">
+        <v>608</v>
+      </c>
+      <c r="L74" t="s">
+        <v>609</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>594</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>610</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>611</v>
+      </c>
+      <c r="J75" t="s">
+        <v>612</v>
+      </c>
+      <c r="K75" t="s">
+        <v>613</v>
+      </c>
+      <c r="L75" t="s">
+        <v>614</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>615</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59758</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>617</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>618</v>
+      </c>
+      <c r="J76" t="s">
+        <v>619</v>
+      </c>
+      <c r="K76" t="s">
+        <v>620</v>
+      </c>
+      <c r="L76" t="s">
+        <v>621</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>601</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>621</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_661.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_661.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="696">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Ryan M</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Stayed here while on a business trip. The hotel is relatively new, and is situated next to 2 other Marriott family hotels (Courtyard and something else). While the overall room is relatively large (and comparable to other new Residence Inn's I have stayed at), the actual bedroom felt a bit small/cramped.More</t>
   </si>
   <si>
+    <t>Monalisa D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r578902402-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>We just spent the entire last week at this hotel since we just moved from CA to TX. We felt at home, thanks to amazing folks at the front desk. I would like to shout out 2 names especially, Chris and Charlene. I would have given 5 stars but since our room location wasn't that good, I am giving 4 out of 5 stars.More</t>
   </si>
   <si>
+    <t>aruthg1987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r559054586-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Thank you Residence Inn!! Your staff were kind and welcoming! Even on the phone. We utilize the shuttle service, breakfast on site, and our rooms were impeccable!! Great stay!! We hope to be back with you next February!! More</t>
   </si>
   <si>
+    <t>Ebazinam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r545330424-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>We booked a suite over a long weekend.  It was nice, but a bit dated and needed some serious cleaning and repair.  The water was always hot and the beds were great.  The bathroom was exceptionally small (there was less than 2 centimeters clearance from the door to the front of the toilet).  The buffet in the morning was nice.  We were disappointed to find that the pool was outdoors and not indoors.This hotel is pet friendly.More</t>
   </si>
   <si>
+    <t>Talemah J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r544508577-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -286,6 +301,9 @@
   </si>
   <si>
     <t>Stayed over thanksgiving holiday weekend. Room was clean . Great location close to many attractions. Quiet even though we were located by the parking lot. Has basketball court outside if you have kids who like to play. No indoor pool so not an option during winter months. More</t>
+  </si>
+  <si>
+    <t>Sara P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r544284736-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -308,6 +326,9 @@
 Our room was equipped with a full kitchen and even dishwasher! The room had a pull out couch where my son slept plus a large king size bed. The furniture was clean and modern. The room was impeccable other than the sliding door in the closet that was off the track but that's really it! The staff was so friendly and courteous. They were happy to help and listened to whatever we had to say and asked how our stay was going...I don't know why some people rated this hotel so poorly. I felt like I was at a top notch hotel! It is beautiful, clean, well decorated and trendy looking. The complimentary breakfast was delish and filled with healthy options which is always so hard to find in many hotels. There were the usual carbs and waffles but also a breakfast burrito station with real scrambled eggs ( not that watered down stuff), fresh fruit like berries and pineapple, cheeses like Brie and some other sliced cheese that was yummy. Hard boiled eggs, coffee and tea and hot chocolate, bacon ( which smelled so good!), healthy Greek yogurt and toppings, oatmeal. I'm sure I'm missing some items but it was delish. On the night we arrived they had a complimentary dessert social happening in the eating area. The pool looked nice even tho I didn't try it. There is a fire pit outside which was very nice also. Our room was equipped with a full kitchen and even dishwasher! The room had a pull out couch where my son slept plus a large king size bed. The furniture was clean and modern. The room was impeccable other than the sliding door in the closet that was off the track but that's really it! The staff was so friendly and courteous. They were happy to help and listened to whatever we had to say and asked how our stay was going when they saw us. We got a complimentary snack of our choosing from the market at the hotel  so we selected a pint of Ben and jerry's ice cream. Completely free. I wish all hotels were this great.More</t>
   </si>
   <si>
+    <t>flyboy1000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r510286362-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -332,6 +353,9 @@
     <t>I stayed here for one night. The room was large with a kitchen, living room etc. The bathroom was pretty basic and dated; however the overall layout was good. Breakfast was standard Marriott and the offering was ok. The only issue I had was the room below which partied literally all night and the hotel struggled to address at the time. Normally this would drag the score to one star; however in the morning the FOM dealt with it very professionally and as a result I suggest 3 stars as my issue was dealt with swiftly. Strictly from a venue point of view, if you want a more modern room the courtyard colony is newer but it comes without breakfast!!More</t>
   </si>
   <si>
+    <t>PlatinumAtMultiple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r510144884-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -356,6 +380,9 @@
     <t>The room itself was nice and pretty clean.  Took me a minute to find the towels since they were hidden behind the bathroom door.  I booked this place since it was bigger and slightly outside of Dallas hoping it would be quieter than other places.  Nope, multiple little league baseball teams.  The hotel can't control the kids (neither could the parents) but there has to be something that can buffer the noise a little better.More</t>
   </si>
   <si>
+    <t>mrs_nabil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r509436000-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -380,6 +407,9 @@
     <t>We stayed there in a 2 bedroom suite with my husband and 3 small kids on 23rd - 25th July. On 25th afternoon when we checked out, unfortunately I left a bag of shopped items from Allen mall worth around $500 with everything labeled. On realizing at the same evening I called the reception and told them that I forgot my things in the room. They said house keeping has already left and we will let you know tomorrow morning. Nobody called me back and I called the next day and on inquiring they said we didn't find anything. I asked for the owners number Mr. AJ as per the front desk. I called him and he sound very helping and he said he will inquire and will give me a call back. He never called me back. On calling him back he didn't pick up the phone few times and once he picked he said the lady who cleaned the room is off today and I remember and will call you back. I never received a call back from him then. I called him so many times after that and he never picked up my phone. Clearly, I left my things there and never got my things back. On top of that nobody was there to address my issue. I have stayed at different Marriott residence inn throughout the US and Canada but this hotel is the worst. If...We stayed there in a 2 bedroom suite with my husband and 3 small kids on 23rd - 25th July. On 25th afternoon when we checked out, unfortunately I left a bag of shopped items from Allen mall worth around $500 with everything labeled. On realizing at the same evening I called the reception and told them that I forgot my things in the room. They said house keeping has already left and we will let you know tomorrow morning. Nobody called me back and I called the next day and on inquiring they said we didn't find anything. I asked for the owners number Mr. AJ as per the front desk. I called him and he sound very helping and he said he will inquire and will give me a call back. He never called me back. On calling him back he didn't pick up the phone few times and once he picked he said the lady who cleaned the room is off today and I remember and will call you back. I never received a call back from him then. I called him so many times after that and he never picked up my phone. Clearly, I left my things there and never got my things back. On top of that nobody was there to address my issue. I have stayed at different Marriott residence inn throughout the US and Canada but this hotel is the worst. If my kids leave even some toys in hotels, they keep it and email us about it. We are sooooo DISAPPOINTED with this hotel and would never return to this one!!!! Be cautious!!!More</t>
   </si>
   <si>
+    <t>Jenny D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r486471354-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -407,6 +437,9 @@
     <t>In town to bring our 5 month old baby to meet friends.  The King suite was set up nice and comfortable. Loved the fully stocked kitchen. Hotel is dog friendly and has a dog park.  We travel everywhere with our dog, so we loved this.  Breakfast was tasty. The outdoor seating area was perfect for having friends over for a visit. More</t>
   </si>
   <si>
+    <t>scottyp145</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r485803525-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -428,6 +461,9 @@
     <t>When you do a weekend away you want things to go easy and smooth. Right through the front door Stacy was waiting with a smile and awesome greeting! This actually makes a difference vs the fake welcomes at some places. She totally new about the local attractions and got us upstairs quick!The night/afternoon crew was run by Tyler both nights and we simply picked up the phone for anything and he happily nailed it every time!Had to cut the trip a day short but cant wait to return with great staff members and awesome location!More</t>
   </si>
   <si>
+    <t>dbking120</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r482057902-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -455,6 +491,9 @@
     <t>The entire grounds are clean and kept manicured.  The staff is sweet and wonderful too. Checking into the room was a smooth and easy process as well. The location was well planned; with a few minutes of everything we wanted to see and do.More</t>
   </si>
   <si>
+    <t>EduardoC1811</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r471520329-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -482,6 +521,9 @@
     <t>Recently spent one week at this property.  Excellent location to points in Plano, Frisco, or even locations in Flower Mound and Highland Village.  With access right off the Dallas Tollway, you can be anywhere in the Dallas area in 30 minutes.  The Stonebriar Mall in Frisco is less than 10 minutes away and there are loads of newer strip malls in the immediate area offering lots of dining options.The hotel itself is updated, clean, and offers your standard Residence Inn breakfast and evening cocktail/snack service.  While I wish the eggs were real eggs (either they're powered eggs or just "wet") that was about the worst of it.  Outdoor pool is clean and the workout area is average size with the basics.  Staff is attentive and very courteous.If there had to be a negative, it would be with their preparedness of their "business center."  The printer ran out of ink and by the time I checked out six days later, they still had not figured out a way to get another ink cartridge.  Should have been an easy fix.  They did adapt and allow guests to use their office computer for printing needs.  Seems like it's a common problem as I walked across the parking lot to their sister Fairfield Inn and one of their two printers were out of ink too!Regardless, a good option in that area.More</t>
   </si>
   <si>
+    <t>TanushreeGarg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r468435821-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -509,6 +551,9 @@
     <t>Regular Residence Inn as any other in US. However, they were doing lot of maintenance activities and didnt give any notice to our travel team which created lot of inconvenience. We had to go to nearby hotel for breakfast, laundry, etc. The staff is courteous &amp; shuttle service is goodMore</t>
   </si>
   <si>
+    <t>Nabata</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r467125158-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -527,6 +572,9 @@
     <t>The place is out in the back of beyond.. The only places close by are the Shops at Legacy and the Stonebriar Mall and everything else is a 20 minute drive. Fort Worth airport is a 25-30 min drive away so that's good. What really works though this the hospitality and the warmth of the people there. Sergio and Stacy at the front desk are the 2 most loveliest helpful people I met. Always ready with a smile and helpful attitude. The rooms are all studio and larger. The studio is perfect for one person with everything spaced out nicely... The hotel is highly recommended for those visiting for work in Plano as this is only a 7 minute drive away. One drawback though would be the noisy AC unit. Makes it difficult to sleep through until you get used to it in a couple of nights. The place only offers breakfast and occasional bitings in the evening... Other than that, you're on your own. The little Shop in the lobby stocks frozen pizzas etc for a night in but it may be better to take a drive to the multiple eateries nearby instead. Overall a good place!More</t>
   </si>
   <si>
+    <t>TruTxn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r457013297-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -554,6 +602,9 @@
     <t>We had a mini family reunion at the hotel. It was fantastic, tables in the breakfast area were perfect for night time games. Staff was great at accommodating individual needs. Hotel was clean, breakfast was good, nice firm beds. Location was perfect for shopping and activities. Tons of restaurants close by. Weekends are an excellent time for family travel. Rooms were quiet even  when we could hear people while we were in the halls. No complaints, we will definitely stay there again. Marriott is our "go to" hotel.More</t>
   </si>
   <si>
+    <t>msmellomo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r441023843-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -576,6 +627,9 @@
   </si>
   <si>
     <t>Call before reserving to make sure that the renovations are complete. We stayed were told at check in workers present 9-5 daytime only. It was 10:35 tonight and guys were in the room below us literally drilling. It sounded like drywall hanging. Absolutely ridiculous. If we were not traveling with small children we would have checked out immediately. We will be leaving this trip early because of this situation. We stayed here so we could cook for our family while relocating from out of state. We did report to the hotel staff, who got the drilling to stop, but the workers are still down there, working. If they were just working 9-5 I think it would be fine but they are not doing what they told us they were doing when we checked in. Lesson learned, easy to book on line, always call to see if they are doing any renovations first. They are dishonest and did not have this on their website, so until you show up you have no idea. Will be notifying Marriott Inc.More</t>
+  </si>
+  <si>
+    <t>Matthew C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r432990813-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -611,6 +665,9 @@
 Consider the Courtyard... next door at least the hotel is less than a year...Disgusting! Roaches (check the photos)?  We also watched a rat swimming in the pool having a great time. Hotel is run down. Bathroom light did not work and we stayed here a couple of times (hoping it was just a fluke) only to find that each time the rooms smell like animal. We saw one room that had 3 dogs and a giant parrot. Is this hotel or a zoo?  We asked to have the light fixed and the roaches removed and no one ever showed up. Breakfast is not much better. Grease galore with fake scrambled eggs?   The hotel has old broken furnishings. Wait until they upgrade this to consider. So in conclusion if you have a family please do yourself a favour and move on. Rats, Roaches and horrible service. Spoke to the General Manager (Mike) of the 3 hotels located in this spot and he was the most unpleasant person I have met in a hotel.  Just my opinion, but I would not recommend this hotel and I have spent nearly 200 days in Marriotts this year alone.  Needless to say this is one of (if not) the worse Residence Inns I have stayed at. Management is clearly no help either.Rate for Sunday to Monday today is 141 minimum. Someone is going to get taken advantage of in terms of value tonight. Consider the Courtyard... next door at least the hotel is less than a year old and this management firm has not had a chance to let that one go down hill yet. I love Marriotts. I just hated this one.More</t>
   </si>
   <si>
+    <t>Dennis F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r412494878-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -638,6 +695,9 @@
     <t>The front end clerks could not have been better. Such good service. Of course the room is what I expected and needed for this business trip. The Mix in the evening and the breakfast in the morning are better than expected. In fact, they are better than they need to be, if that makes sense.More</t>
   </si>
   <si>
+    <t>Ron P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r396225655-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -665,6 +725,9 @@
     <t>Spacious &amp; clean rooms, comfortable bed, top notch friendly staff.  Furniture OK but worn.  Fold out sofas rarely are comfortable in any hotel.  One of our kids slept on the sofa cushions &amp; the other on the floor.  Kitchen suites are very nice with full refrig &amp; stove with oven.  Pool clean.  Breakfast is a typical fare but well attended to by the  staff.More</t>
   </si>
   <si>
+    <t>SDhiker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r387046194-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -692,6 +755,9 @@
     <t>Stayed in a 2 bedroom suite for a sisters weekend. Room was clean. Bed and bedding comfortable. Bathrooms were a little small. Breakfast was fine both mornings, no issues with selection or service. That was in spite of having multiple high school boys soccer teams staying there as well. Staff was extremely friendly. Great "Texas" hospitality. My only issue is the kitchen ware. A 2 bedroom suite should be stocked for the number of people it can accommodate. We only had 4 of everything.  Doesn't make sense in a room that is supposed to accommodate 6. While we only had 3 it did mean a lot of washing since we stayed in both nights for dinner. More</t>
   </si>
   <si>
+    <t>Terps007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r377665376-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -722,6 +788,9 @@
     <t>As someone who travels a good bit most breakfast bars look the same . Glad to write that the breakfast and happy hour in this location was very nice . The staff was very friendly and professional . The hotel is in great shape and very clean . But a rate of over $ 150.00 is a little high for this area .More</t>
   </si>
   <si>
+    <t>Disha G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r369249952-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -743,6 +812,9 @@
     <t>Awesome breakfast with regular changes , awesome evening snacks n very nice room service too , surely will stay at same hotel next time I m in the town .. Quite near to legacy drive , 5 mins drive so ur office can be really near to this one .  Good value for money More</t>
   </si>
   <si>
+    <t>Grizzly386</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r367283671-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -767,6 +839,9 @@
     <t>Stayed at this property to attend an outdoor country in Frisco Texas.  The staff was extremely friendly and helpful.  Only negative thing that caused me to rank them other than excellent is that the breakfast was below par.  Unfortunately they were out of a lot of things about an 1/2 hour before it ended.  However I would still recommend staying here.More</t>
   </si>
   <si>
+    <t>slowspd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r341678263-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -794,6 +869,9 @@
     <t>Upon check in my dish washer was still loaded up with the previous residence dirty dishes. I asked twice to wash them without prevail. I ended up washing dishes after receiving dish washer packets from the front desk. In the room the vinyl was pealing from the furniture. At breakfest the bacon was swimming in grease. The wifi " which was supposed to be high speed" was so slow I couldn't use FaceTime without the frame freezing every minute. Overall a bad stay but the good news there is better housing close by for the same price.More</t>
   </si>
   <si>
+    <t>BlueMarlinDave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r340677107-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -818,6 +896,9 @@
     <t>I understand that this is a new Residence Inn and it shows it's newness well. The place is extremely clean and well maintained with one of the most friendly staff's I have encountered. The room is typical of a Residence Inn and I love the layout. As a business traveler it is nice to have the extra room to stretch out and get business done. This hotel is also very convenient for conducting business in the Allen, McKinney, Plano and Frisco areas. My only complaint is that there are really no restaurants adjacent to the property. This is partly due to the newness of the three Marriott brands. There is property adjacent suitable for potential restaurant development so like all else in Texas, give it some time and the development will occur. I would stay here again.More</t>
   </si>
   <si>
+    <t>Tighedog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r336300098-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -843,6 +924,9 @@
   </si>
   <si>
     <t>This is our 3rd or 4th stay at this property.  We like the suite set up since we are here for the holidays with dogs for and extended stay.  If you like to hit the downstairs breakfast, there is always some different to offer for a hot dish along the standard breads, cereals and waffles.  The staff is very accommodating and we appreciate all their efforts.  My only concern on this trip was the cleaning of the floors.  We have 2 small dogs and when we enter a room we check under the bed if you can see under it and the rest of the room for anything they may put in their mouths.  On this trip we found a cap to a water bottle (choking hazard) under the bed and a cracker remnant alongside the kitchen table.  Everything else in the room and with the stay was satisfactory.  We will still book this place ion the future, close to family and plenty of shopping.  The whole 121 Toll corridor grows with new business every year we come down.More</t>
+  </si>
+  <si>
+    <t>Joanna3333</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r320934799-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -878,6 +962,9 @@
 Regarding the staff, they are not friendly or unfriendly, just...Giving it a 4 because it is better than a 3 (average). It's hotel style, not an outdoor entrance like some Residence Inns. 4 stories, pool, whirlpool, well-maintained grounds and pool area. Evening snacks and beer and wine, very nice, and hot breakfast, sausages, bacon?, muffins, toast/breads, scrambled eggs, waffles, juices and coffee and tea and fruit mix. Also have a fire pit area with comfortable seating, though the fire pit was not working during my stay. Stayed there 8 days and I must say my visit was a little underwhelming. The room was very nice, a studio suite, has sofabed, queen bed, full-size refrig and stovetop (no oven) and dishwasher.. NIce furnishings with desk/chair and small dining table/2 chairs. Dishes provided, though several missing items or just odd number, like 3 glasses, 3 bowls. But all in all the rooms are nice. Housekeeping staff is not thorough. Left sofabed partially closed, didn't change sheets of sofabed, also other signs of spills and such not cleaned up.Definitely had some intermittent tv reception issues. ‘Business Center” is actually one computer/printer in lobby area with no seating. The computer is also on a very high counter and if you wanted to use the computer for more than a few minutes, I guess you’d have to pull up one of the bar stools or use it standing up for an extended period.Regarding the staff, they are not friendly or unfriendly, just polite I guess. One member though I met on final day was much more what I’ve come to expect from  staff at a  Marriott brand. That is Rey, a supervisor. Thanks for the warm hospitality. Also like that room was soundproof, there's a highway and construction very close by, but I did not hear a sound from either.None of these negative things I've pointed out are major, but just made for less than an absolute 4 rating. Might stay there again, but would also look into other nearby hotels.More</t>
   </si>
   <si>
+    <t>Scott H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r318792343-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -896,6 +983,9 @@
     <t>I enjoyed my stay here. It is pretty centrally located for the area I needed to visit. The amenities at the hotel are nice and the rooms are comfortable and well maintained. The staff was always very nice and smiling and welcoming. Would definitely stay here again. More</t>
   </si>
   <si>
+    <t>DrFood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r318033870-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1007,9 @@
     <t>This is the best Residence Inn I have ever stayed at. The property is 7 years old, but honestly it looked less than a year old. The management team and staff have done a phenomenal job with this property.More</t>
   </si>
   <si>
+    <t>Kathleen1626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r312185780-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1037,9 @@
     <t>Every staff member was friendly, helpful and accommodating. The room was clean, well appointed, and extremely quiet!It's close to the tollway, yet also as close to access roads so you don't have to use the tollway. It's very convenient for getting to shopping at Stonebriar, dining at Shops of Legacy and visiting the different sports venues in Frisco. It's about a 35 - 40 minute drive to the airport by avoiding tollways depending on time of day. By tollway it would be about 20 minutes. Ample breakfast and it was kept well stocked and fresh.More</t>
   </si>
   <si>
+    <t>sweetbabies2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r301245033-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -966,6 +1062,9 @@
   </si>
   <si>
     <t>Stayed two days and had a great time! The hotel is located next to Cascade Park, perfect place to walk your dog or play with the kids and just minutes from the Stonebriar mall. The staff is so welcoming and attentive to any needs.  I gotta mention Mrs. Elise, Mrs.Jasmine and Mr.Rey,Mrs.Stacy and Mr.Edgardo for their hard work and kindness. Breakfast was abundant with a variety of sausages, eggs, hash  brown patties, fruits, yogurts,french toast and waffles with a big supply of syrups, butters,jams,muffins and  whipped cream.Mrs.Iffat was very attentive and refilled anything that was running low, making sure everyone gets what  they need. Rooms were clean, comfortable. See attached pictures of how much extra service they provide including snacks on afternoons and drinks, barbecue cookouts and many more for absolutely free. They sure know how to treat their guests, making you feel like king/queen. Can't wait to visit and stay with  them again! More</t>
+  </si>
+  <si>
+    <t>RezaDu</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r293936723-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -999,6 +1098,9 @@
 We check into the small suite but I was so pissed off I called the 800 number and pretended that I'm driving by and need one bedroom suite for one night.  800 says they have the room and asks if I like to reserve.  I said no as I'm just pulling into hotel parking.  Ran up to front desk and asked the clerk why did he say he was sold out of one bedroom suites...Had stayed at hotel multiple times as i had brought out my wife and our first child for several week long stays to look at homes and get a feel for where I want to live.  When I made the reservations, I INSISTED I needed the one bedroom suite as we need to have the ability to put our daughter down to sleep in the bedroom while my wife and I organized our million things to do after moving from CA.Had flight delay.  Called hotel and said we will arrive late and to hold our specific one bedroom suite.  Finally after extremely long flight delays, get to hotel at 11 PM with 6 suitcases, 3 year old dead tired crying, and wife 8 months pregnant and exhausted from the flight to find out they gave our room away!  Clerk was so disinterested and had no empathy even though he could see exhaustion on our faces.  Without any empathy says, "we don't guarantee specific rooms!"  We check into the small suite but I was so pissed off I called the 800 number and pretended that I'm driving by and need one bedroom suite for one night.  800 says they have the room and asks if I like to reserve.  I said no as I'm just pulling into hotel parking.  Ran up to front desk and asked the clerk why did he say he was sold out of one bedroom suites when the 800 number said it was available.  He said he could not sell the one remaining one bedroom suite due to maintenance issues.Still did not give up.  Went back to room and called 800 number again and pretended that I was driving through and needed two one bedroom suites.  800 number reservation agent says she can accomodate us.  Finally got clerk to admit they had a huge group (30+ rooms) checking in tomorrow morning early in the morning and could not give away a one bedroom suite.Next morning I spoke to manager and he offered to comp one night of our 4 day stay but wasn't apologetic and didn't seem like he cared.  Moved me to one bedroom suite.  Thankfully our moving truck made it out a day early and so we checked out as soon as we could.More</t>
   </si>
   <si>
+    <t>Eddie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r286823254-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1128,9 @@
     <t>Great three day stay. 4 and 5 year old grandkids were with us.  Highly recommend.  Will be back again. Staff was great. We bq shrimp and steaks on their grill. Hotel had food in the evening.  I gave the staff the list of food we needed and they shopped for us without extra cost.More</t>
   </si>
   <si>
+    <t>775shirleyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r279794376-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1158,9 @@
     <t>We stayed memorial weekend for a basketball tournament for a night. The only comment I have to make is breakfast. There was an hour left for breakfast, and they were out of the eggs and a few other items. We and some other guests had to wait for a while for them to put more out. While we waited, I decided to get some waffles. No luck...they were also out of the batter. I had to tip the container to try and get what I could. There didn't seem to be a sense of urgency to get the food out for the hungry guests. This was our second time staying here. The first time was a few years back and I did notice from then and now is the increase in traffic due to the opening of the Nebraska Furniture Store.More</t>
   </si>
   <si>
+    <t>Comm007guy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r279295151-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1182,9 @@
     <t>This was my first time staying at this Marriott property for a business trip. My room was clean and the front desk staff friendly. The free breakfast was an added bonus. I will most certainly stay at this hotel on my next trip to Plano.More</t>
   </si>
   <si>
+    <t>WCup_dreaming</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r274835227-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1212,9 @@
     <t>This Residence Inn is in a good location for anyone visiting Plano. There is construction going on on the freeway by the hotel but it was not disturbing.If you are traveling for business beware that this hotel is pet-friendly and if you are unlucky enough there could be a lonely Fido in a room close by which would interfere with taking conference calls from your room. I reported the situation with the front desk but the response was that the hotel is pet-friendly and there was nothing to be done (I do love dogs but this was not the setting for a business stay). I only stayed for just 3 nights but if I had to stayed longer I would had moved to another hotel (there are several options in that area). Other than that the hotel has the regular Residence inn standards.More</t>
   </si>
   <si>
+    <t>Lynda442</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r273360463-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1233,9 @@
     <t>My husband and I have stayed at this hotel twice.  The staff is very friendly, and the accommodations are very comfortable.  Both studios and suites have a kitchen area, complete with refrigerator, sink, stove, even dishes.  The bedroom area is comfortable.  It's just a very nice place to stay.  Breakfast can be included, and overall, it has one of the better breakfasts offered by this kind of establishment.  The food was actually hot, and the waitstaff came to our table to make sure everything was all right--what a concept?  Overall, we enjoyed the stay both times we were in the Colony/Plano.More</t>
   </si>
   <si>
+    <t>BaileyPugs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r268165510-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1257,9 @@
     <t>This hotel is convenient to Plano, The Colony, McKinney, and Lewisville. Everything was clean and modern. The breakfast offered more than just bagels so we had sausage, eggs, potatoes, biscuits and gravy. I didn't see any fruit but I got out of the breakfast area as fast as I could because it was a small area and pretty busy on a Saturday morning. More</t>
   </si>
   <si>
+    <t>DRD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r256279608-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1287,9 @@
     <t>Worked out well here - easy to get to, lots of parking, close to lots in the area. Staff was very friendly/helpful, breakfasts lived up to the Marriott residence inn expectations. I have to agree that the beds were a little worn with slightly rough sheets. And it would be good if there was a night-light option for the bathroom (instead of the bright bathroom light-fan combo). But we four all slept fine overall, my kids very well actually. I was slightly disappointed the outdoor pool was not heated (the jacuzzi was though!) but the kids LOVED our trip and staying at the hotel, especially the make-your-own waffles. We will definitely come back b/c the hotel was so functional and decent.More</t>
   </si>
   <si>
+    <t>Dianne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r253579232-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1311,9 @@
     <t>Made a very last minute booking, so smooth so easy. No hanging about when booking in, straight to a super big room with everything you could need. Went to the reception well after midnight as we arrived back after attending a wedding. The receptionist Miona was brilliant. She asked if there was anything she could do or get for us. She even got coffee for us, really welcome at such a late hour. She said she would be on all night and to call upon her if we needed to. This made us feel special and safe, (we were on the ground floor) knowing someone was there and offering to cater to any of our needs. Thank you Miona, hope to see you again when we book again. You are a real asset to your company.More</t>
   </si>
   <si>
+    <t>justtrippinok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r242631941-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1329,9 @@
     <t xml:space="preserve">This hotel has so much potential. It's a beautiful newer hotel, but it's showing some wear. The beds were feeling quite worn, especially the mattress on the sleeper sofa. It was really unacceptable. Marriott really needs to step up the quality of the bed linens too. The sheets felt like sandpaper. I would expect that at a motel 6, not from a Marriott. After a few bad experiences with the brand lately, I'm left thinking Marriott is really going downhill. </t>
   </si>
   <si>
+    <t>Oladele A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r227689446-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1356,9 @@
     <t>Good hotel, clean, nice pool, nice gym and great breakdfast.  We booked the hotel for a wedding and I stayed for 4 days.  From my experience, every family enoyed their stay and the staff are very accommodating.More</t>
   </si>
   <si>
+    <t>nicolen763</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r226394423-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1383,9 @@
     <t>This hotel was very nice and clean.  The staff were very accommodating and helpful with any questions or extra items we needed.  The pool was nice and breakfast was a lot better then previous hotels we encountered on our rive from NY to Texas.  We would def stay here again!!!More</t>
   </si>
   <si>
+    <t>sightseeker29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r220985356-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1410,9 @@
     <t>Nice hotel. Funky smell in the hallways, but overall, it was pretty good. They had a great breakfast (included) and the room was a nice, one bedroom suite. Good value for the price. I would stay here again.More</t>
   </si>
   <si>
+    <t>sayhi2tinee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r209460424-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1440,9 @@
     <t>This was my second stay at this hotel. We stayed here during the week of New Year's Eve and enjoyed our stay. The staff are very friendly and helpful and the rooms are clean, comfortable, and spacious. Even though the hotel is right off Highway 121, we didn't hear a lot of highway noise.The only downside we encountered is that the afternoon light meal/refreshment service was spotty. A couple of nights they didn't have any service at all and a couple of other nights, the food didn't match the menus they posted in the guest rooms.The hotel is a short drive from shopping and restaurants. We'll likely stay here again during our next visit to the area since this hotel offers a great price for their rooms.More</t>
   </si>
   <si>
+    <t>Bill F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r191478665-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1347,6 +1488,9 @@
     <t>We stayed during the week of Christmas and were very pleased.  The suite was clean and comfortable, and the staff were very accommodating and friendly. This being a pet friendly hotel had quite a few dogs around, ours included. At one point we had a dog on another floor barking quite long which was starting to get our dogs worked up.  However, within a couple of minutes of making a call to the desk about the non stop barking, things quieted down. Breakfast was good and not the same day after day. We plan to book again on our next stay.More</t>
   </si>
   <si>
+    <t>granitegraphics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r176466467-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1362,6 +1506,9 @@
     <t xml:space="preserve">We always stay residence inn. This one absolutely immaculate. It would have been a 5 across board except hand lotion was an empty and lights by bed only turn on/off on one side on bed. Otherwise perfect. </t>
   </si>
   <si>
+    <t>Rick H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r171093038-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1527,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Karen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r169105779-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1398,6 +1548,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Aaron P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r156674973-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1413,6 +1566,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Constat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r153713527-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1596,9 @@
     <t>Even though Residence Inn is not at the top of the Marriott food chain, this one made a great impression.  It has a great lobby and cafe area, very nice rooms and a wonderful staff along with a good location right on the 121 expressway.  I especially liked the exercise room, which was a little more spacious than most and that the treadmills and elliptical faced a mirrored wall rather than a blank wall; which is nice when you already hate running on a treadmill.  I would definitely stay here again the next time I'm in the Plano/Frisco/The Colony area.More</t>
   </si>
   <si>
+    <t>R H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r151929799-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1467,6 +1626,9 @@
     <t>My husband and I were recently relocated to the Dallas area and needed a place to stay while we looked for a house.  We ended up staying over 3 months (we were back and forth from our home and had several different stays in different rooms) and couldn't have found a better place to stay.  Between the friendly staff and the clean rooms, they had it all covered.  We also had other folks from our business stay there for 1-6 days at a time and they all had great things to say as well.  Pros:  1-yes, it's pet friendly, but we never heard or had any issues with dogs barking, smell, etc..  2-it has a manager's reception M-Th, complete with small salad bar, meal items (burgers, pasta dishes, etc) and wine/beer.  3-from the kitchen staff to the maintenance crew to the front desk, they were all professional and best of all, remarkably kind.  The only thing that I would say they could improve on is coming up with a varied hot breakfast menu.More</t>
   </si>
   <si>
+    <t>JulianM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r149687541-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1653,9 @@
     <t>I stayed here on business for a few days. The hotel is next to a highway and you can be at Dallas airport in some 25 minutes (with little traffic). Exterior parking is included, as well as internet with good speed. Breakfast is too simple (even when comparing with other Residence Inn hotels), but it gets the job done.Overall a good experience.More</t>
   </si>
   <si>
+    <t>Jmooo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r148556284-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1680,9 @@
     <t>Great place.  Love how big the rooms were.  Very clean.  Front desk was helpful but seemed like they really didn't want to go out of their way to help.  Asked about restaurants near by and shopping and they didn't really give much info.  Great place to stay especially if you know the area.More</t>
   </si>
   <si>
+    <t>happylm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r148366663-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1704,9 @@
     <t>very clean, rooms are comfortable.  Good managers reception in the evening.  At the breakfast, there was a very loud woman who kept yelling repeatedly she wanted butter (it was there the whole time) but I guess the manager on duty heard her and immediately came out to see what the problem was, so I was impressed with his responsiveness....the only thing was the front desk clerk on the evening shift was not pleasant at all, seemed totally bothered that we should be checking in.  Wouldn't say hello or anything.More</t>
   </si>
   <si>
+    <t>BotRoad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r139697776-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1560,6 +1731,9 @@
     <t>Rooms were large and clean - typical residence inn quality; only exception was quality of breakfast food which was subpar over all other marriotts where breakfast is offered. Food/dining around this area that is quality, known brands is tough- you're still in the middle of nowhere but perfectly convenient to the corp HQs in plano!More</t>
   </si>
   <si>
+    <t>MolonLabe1776</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r139206785-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1761,9 @@
     <t>I stayed here from the August 20-24th on a business trip and I had a wonderful experience.All of the staff I encountered was friendly and helpful.  Specifically I'd like to mention Martin at the front desk,.He went out of his way to make myself and my partners welcome and he even printed out some maps for us without even being asked.There was also a new General Manager, I cannot recall his name however.Top rate, right down to the "free rubber duckie" I got on my third night.More</t>
   </si>
   <si>
+    <t>Ms.LoveTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r139113944-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +1782,9 @@
     <t>Clean, new, convenient location to Frisco, Plano, DFW Airport, Dallas Tollway access and also a straight shot to get to McKinney and Allen.  It is also convenient to one of my favorite stomping grounds - The Shops of Legacy where you can enjoy upscale entertainment or a night out that is geared toward couples and singles.  If you have little ones in tow the Stonebriar Mall area is very close with lots of options surrounding it like The Cheesecake Factory.  It has a modern/art like appeal that hinges on a New York City Chic flat/apt.  There are also social activities like a hamburger cookout at the pool - yes, there is a stainless steel gas grill.  They have a happy hour and a very inviting lobby and outdoor lounge pit if your group needs a place to come together in the evening.The staff is friendly and accomodating to your needs.  The only reason I did not give the hotel and excellent rating is that the Hilton Garden Inn beds are better.  But if you can sleep on a Hampton Inn bed you will be just fine.More</t>
   </si>
   <si>
+    <t>twosavoie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r121339255-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1623,6 +1803,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>javier c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r120972868-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1639,6 +1822,9 @@
   </si>
   <si>
     <t>October 2011</t>
+  </si>
+  <si>
+    <t>stephers06</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r117154517-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -1668,6 +1854,9 @@
 TRANSPORTATION: The hotel does have a complimentary shuttle but only runs certain times of the day...I stayed here for a week Aug14th till 19th. I enjoyed my room very much. It was comfortable, quiet and had all the amenities i needed. I love the fact that the hotel (as it isn't close to any restaurants - only if you have a car) has a complimentary breakfast in the morning. there was enough variety too as to not get bored of it after a week. The Texas shaped waffles are delish ;) In the evening they also have a light fare with complimentary bud light on tap and red/white wine. The evening is a great time to gather and meet some of the guests after a long work day. I have to commend Brittan, one of the concierge. My co-worker and I were wondering where we should go on our 1 day we had to site see. She recommended The Stockyards Station in Fort Worth. She told us that if we wanted to see Texan culture it was the place to go. She even went online to show us the website and provided us with a taxi/shuttle service to call. Thank you Brittan we enjoyed our day at the stockyards. Fort Worth was awesome!The pool was very clean and refreshing. We were able to swim up until 10PM. Nice way to cool down after a day in the heat:)TRANSPORTATION: The hotel does have a complimentary shuttle but only runs certain times of the day and travels withing a 5mile radius. If you want to travel I would recommend renting a car at the airport. We used a shuttle service and cost us 85.00 from The hotel to Fort Worth stockyards 1 WAY. On the return it was late and we were only able to get a taxi and that was 95.00 with fuel surcharge and tip. The transportation guys are very friendly - great service! but if you are looking to save a bit of money I recommend a car rental. We were fortunate that a co-worker had a rental and could drive us to Parker Rd. in Plano to get on the DART - The train. You can pay $4.00 round trip for the day to travel from Plano to Dallas (West End) or even continue on into Fort Worth. Some great restaurants are located at Legacy Dr. Where the "shops of legacy" are - our favorites were Seasons 52,  Village Burger, Potbelly's, and Land &amp; Cattle in PlanoMore</t>
   </si>
   <si>
+    <t>worldtraveler21nj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r113996949-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1686,6 +1875,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>SeminarTrekker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r110534557-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1707,6 +1899,9 @@
     <t>March 2011.  I had not been to the Plano area for business for some time.  During  last visit I stayed at the Marriott Legacy Center (good stay) to be close to EDS/HP.  Plano has grown imensley since my last tirp and I have to say I did get lost driving around as I did not recognize the place. This stay I wanted to be close to Frito Lay to attend an Analytics Workshop.  I would say it was about 5-7 minute commute by car to Frito Lay.  Check in was delayed by no room availability at the time, apparently they told me there were a lot guests there for a Frito Lay HR Labor Relations conference.  So I drove to nearby Stonebriar mall for a bite to eat.  Returning to this property my room was available.  I received a fairly quiet room on one of the higher floors.  This is new modern Residence Inn that is essentially a box facility.  The furnishing are all contemporary but the room space is compact.  My room was clean and the service folks did a good job of cleaning the room every evening.  My bed was comfortable and everything in the room worked great.  Great to have full size fridge and a microwave.   There was penty of free parking.  The FitnessCenter had modern equipment which worked well.  Most days I had breakfast and lunch at nearby Frito Lay for my business.  One day I...March 2011.  I had not been to the Plano area for business for some time.  During  last visit I stayed at the Marriott Legacy Center (good stay) to be close to EDS/HP.  Plano has grown imensley since my last tirp and I have to say I did get lost driving around as I did not recognize the place. This stay I wanted to be close to Frito Lay to attend an Analytics Workshop.  I would say it was about 5-7 minute commute by car to Frito Lay.  Check in was delayed by no room availability at the time, apparently they told me there were a lot guests there for a Frito Lay HR Labor Relations conference.  So I drove to nearby Stonebriar mall for a bite to eat.  Returning to this property my room was available.  I received a fairly quiet room on one of the higher floors.  This is new modern Residence Inn that is essentially a box facility.  The furnishing are all contemporary but the room space is compact.  My room was clean and the service folks did a good job of cleaning the room every evening.  My bed was comfortable and everything in the room worked great.  Great to have full size fridge and a microwave.   There was penty of free parking.  The FitnessCenter had modern equipment which worked well.  Most days I had breakfast and lunch at nearby Frito Lay for my business.  One day I did try the complimentary breakfast and it was so so.  Most folks working in the property were friendly but some were not.  Earlier in the week I stayed the Marriott Suties Market Center near Dallas those folks were more friendly and welcoming.  This a Fairfield Inn next door.  No places to eat nearby but if you have a car, then there are several nearby choices for quick bite to eat or you can go further to the Stonebriar Mall.  The return drive to DFW was fairly quick.  if you're in the Plano area visiting and your needs require a microwave and fridge, then I recommend this property if you can get a good value.  I believe I paid around $110.00 per night and at that rate is was excellent value.More</t>
   </si>
   <si>
+    <t>travlinmommy38</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r109252256-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1725,6 +1920,9 @@
     <t>We stayed at this property two years ago. It was so wonderful that we wanted to stay here for our Spring Break. Upon arrival, they checked us in early, but when we got to our one bedroom suite, it was a handicap room. With a bathroom as big as the kitchen and no dressers for storage, we wanted another room. They said we might be able to move the next day. With three little kids and a bunch of stuff, at $170 a night, we decided we did not want to stay. They did not apologize. It was such a letdown. Call ahead if you have an arrival during the week to ensure that they won't place in a handicapped suite if you don't need one. The management acted as if this is completely acceptable. They never even offered us any concession for the possible inconvenience.More</t>
   </si>
   <si>
+    <t>lucycan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r103107335-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1752,6 +1950,9 @@
     <t>I travel to Dallas every week for work but brought my family along for spring break.  I know the Plano / Frisco area well so wanted to stay somewhere with separate bedrooms.  This hotel fit the bill.The hotel was very clean, especially the rooms.  The staff was very friendly and helpful.  The beds were comfortable.Its a new hotel (in the last year, I believe) so this helps!The only negatives were the pool needed a good cleaning.  Granted it was VERY windy when we were there and only in the 80s so maybe they don't clean it until it warms up.I would stay again.More</t>
   </si>
   <si>
+    <t>nancythenice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r99334298-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1773,6 +1974,9 @@
     <t>We stayed in a one bedroom suite over the weekend at a great rate.  The suite was very spacious with a full kitchen, a table and 2 chairs, a desk, a small sofa and easy chair in the main room.  The flat screen TV received some HD channels allowing us to watch football comfortably.  The bed was also very comfortable, and the bath could be accessed without going through the bedroom, which was great when one of us went to bed early.  We slept well. The hotel wasn't crowded, but the suite was also at the end of the hall, and the bedroom protected from any noise.  Everything was spotless.  The hotel is located along a major road, but you have to get in the car to find restaurants and shopping. Breakfast was ample, and we particularly appreciated the free newspapers available even on the weekend.More</t>
   </si>
   <si>
+    <t>JMcreason</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r96725626-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1794,6 +1998,9 @@
     <t>I liked this hotel and would suggest this hotel to others. I'm a very simple person with basic needs: cleanliness, a decent sized room, quietness, high speed internet, and microwave and fridge in the room. This hotel met my needs. Price was great. There are no complaints.More</t>
   </si>
   <si>
+    <t>trans4med</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r93391070-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1809,6 +2016,9 @@
     <t>My wife and I stayed at this Residence Inn of a business trip this past week.This Hotel is clean, bright, and has great access.The staff is very friendly and helpful. The room was large, and comfortable. Breakfast was a real treat, they offered everything would would want from hot to cold foods. We look forward to staying here again.</t>
   </si>
   <si>
+    <t>Adwitiya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r77545694-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1830,6 +2040,9 @@
     <t>I stayed in the Residence Inn, The Colony for around 4 months from Apr 10-July 10, and it was the most enjoyable stay at any hotel so far. The buiding is new, all the appliances were immaculate, the room size was good. Best part was the food quality and variety they offered during breakfast and evening social hours. Cleaning serivce was nice, and the staff was very amiable and friendly. ELSA,  Director of Sales was very helpful while we stayed, she used to take our feedback regarding food and other stuff, she was like a friend and gelled up very nicely with all of us. Pool, Spa, Gym everything was just great. I would recommend this hotel to everyone and would stay if i ever go back to Dallas.More</t>
   </si>
   <si>
+    <t>KrishnaH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r76964060-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1857,6 +2070,9 @@
     <t>I stayed here for 3 months between April and July 2010. The hotel is excellent and the staff are very friendly &amp; helpful. The room was very spacious &amp; for the price was a steal. The happy hour every weekday evening is particularly attractive and gives a chance to mingle with other guests. The fitness center and the pool are neatly maintained.More</t>
   </si>
   <si>
+    <t>namit_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r71558556-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1872,6 +2088,9 @@
     <t>Because of my work I've had to travel to many different places and have stayed in many different hotels and this is by far the best hotel that I've stayed in. The service is excellent, the food is great and teh amenities are awesome. The manager here -  Elsa Martinez really took care of everything. If you need to extend your stay or need to make changes to your plans, the staff here will really help you out. Kudos to Dominica, Greg and Katrina for putting in all the effort to make this stay memorable.</t>
   </si>
   <si>
+    <t>Sidharth R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r71176419-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1891,6 +2110,9 @@
   </si>
   <si>
     <t>I was at this residence inn for an extended stay of almost 2 months for business. It was one of the best hotel I've stayed in. The staff was great. Elsa Martinez, who is the manager, was very accommodative and extremely helpful to make our stay better. Katrina and Greg who also worked at the front desk were very helpful and extremely friendly. I would highly recommend this place to anyone, either work or leisure for anyone visiting Plano, the colony or any of the nearby areas. The hotel itself is almost brand new, only a year old and the rooms are big, spacious and the appliances are great. The lounge area is great to hang out, especially during their daily happy hour. I am definitely looking forward to my next trip here, and staying at this place again. :) Thank you to everyone at this Residence Inn for making my stay this comfortable and wonderful. :)More</t>
+  </si>
+  <si>
+    <t>Colleen1118</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1449336-r63367700-Residence_Inn_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -2410,43 +2632,47 @@
       <c r="A2" t="n">
         <v>59758</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>26602</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2464,56 +2690,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59758</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175852</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2529,56 +2759,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59758</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175853</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2590,56 +2824,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59758</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175854</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2655,56 +2893,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59758</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175855</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2716,56 +2958,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59758</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>21217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2777,47 +3023,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59758</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175856</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
@@ -2834,56 +3084,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59758</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175857</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
         <v>105</v>
       </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2901,47 +3155,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59758</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175858</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -2958,56 +3216,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59758</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4569</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3019,56 +3281,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59758</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175859</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3086,56 +3352,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59758</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175860</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3151,56 +3421,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59758</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175861</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3218,56 +3492,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59758</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175862</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3285,56 +3563,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59758</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175863</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3346,56 +3628,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59758</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175864</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3411,56 +3697,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59758</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175865</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3478,56 +3768,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59758</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>7202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3545,56 +3839,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59758</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>60965</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3606,56 +3904,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59758</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>15058</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3673,56 +3975,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59758</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175866</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3734,56 +4040,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="X22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59758</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175867</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3799,56 +4109,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="X23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59758</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>175868</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3860,56 +4174,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="X24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59758</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>175869</v>
+      </c>
+      <c r="C25" t="s">
+        <v>262</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="L25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3921,56 +4239,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="X25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59758</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>36184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3982,56 +4304,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59758</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>80158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4047,56 +4373,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59758</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125520</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4114,56 +4444,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="X28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="Y28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59758</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>175870</v>
+      </c>
+      <c r="C29" t="s">
+        <v>300</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="O29" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4181,56 +4515,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59758</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>11421</v>
+      </c>
+      <c r="C30" t="s">
+        <v>310</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4242,56 +4580,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59758</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175871</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4309,56 +4651,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X31" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59758</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175872</v>
+      </c>
+      <c r="C32" t="s">
+        <v>325</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="O32" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4374,56 +4720,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="X32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="Y32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59758</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175873</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="J33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="K33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4435,56 +4785,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="X33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="Y33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59758</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175874</v>
+      </c>
+      <c r="C34" t="s">
+        <v>344</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="J34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4502,56 +4856,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="X34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="Y34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59758</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>175875</v>
+      </c>
+      <c r="C35" t="s">
+        <v>354</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="J35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="K35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="L35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4563,56 +4921,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="X35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Y35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59758</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175876</v>
+      </c>
+      <c r="C36" t="s">
+        <v>364</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4630,56 +4992,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="X36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Y36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59758</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175877</v>
+      </c>
+      <c r="C37" t="s">
+        <v>374</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4691,56 +5057,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="X37" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Y37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59758</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>175878</v>
+      </c>
+      <c r="C38" t="s">
+        <v>382</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4756,56 +5126,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="X38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59758</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>10545</v>
+      </c>
+      <c r="C39" t="s">
+        <v>392</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O39" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4823,56 +5197,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="X39" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="Y39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59758</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175879</v>
+      </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="J40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="O40" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4884,56 +5262,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="X40" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="Y40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59758</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175880</v>
+      </c>
+      <c r="C41" t="s">
+        <v>407</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4951,56 +5333,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59758</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>24180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>417</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="L42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="O42" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5016,47 +5402,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="X42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Y42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59758</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>109825</v>
+      </c>
+      <c r="C43" t="s">
+        <v>425</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="J43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="K43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="L43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
@@ -5085,50 +5475,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59758</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>175881</v>
+      </c>
+      <c r="C44" t="s">
+        <v>431</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="J44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="K44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="L44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="O44" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5146,56 +5540,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="X44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="Y44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59758</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175882</v>
+      </c>
+      <c r="C45" t="s">
+        <v>440</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="J45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="L45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5211,56 +5609,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="X45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="Y45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59758</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>175883</v>
+      </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5276,56 +5678,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="X46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="Y46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59758</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>136829</v>
+      </c>
+      <c r="C47" t="s">
+        <v>458</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="J47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="K47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="L47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5347,56 +5753,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="X47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="Y47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59758</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>5705</v>
+      </c>
+      <c r="C48" t="s">
+        <v>468</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="J48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="K48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="L48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5418,56 +5828,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="X48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="Y48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59758</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125520</v>
+      </c>
+      <c r="C49" t="s">
+        <v>290</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="J49" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="K49" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="L49" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5479,47 +5893,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="X49" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="Y49" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59758</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>91669</v>
+      </c>
+      <c r="C50" t="s">
+        <v>484</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="J50" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="K50" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="L50" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5548,50 +5966,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59758</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>16952</v>
+      </c>
+      <c r="C51" t="s">
+        <v>490</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="J51" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K51" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="L51" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5615,50 +6037,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59758</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>8300</v>
+      </c>
+      <c r="C52" t="s">
+        <v>497</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="J52" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K52" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="L52" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5682,50 +6108,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59758</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>45495</v>
+      </c>
+      <c r="C53" t="s">
+        <v>504</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="J53" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="K53" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="O53" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5749,50 +6179,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59758</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175884</v>
+      </c>
+      <c r="C54" t="s">
+        <v>510</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="J54" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="K54" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="L54" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5804,56 +6238,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="X54" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="Y54" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59758</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>35605</v>
+      </c>
+      <c r="C55" t="s">
+        <v>520</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="J55" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="K55" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="L55" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5865,56 +6303,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="X55" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="Y55" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59758</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>175885</v>
+      </c>
+      <c r="C56" t="s">
+        <v>530</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="J56" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="K56" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="L56" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5936,47 +6378,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="X56" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="Y56" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>59758</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>175886</v>
+      </c>
+      <c r="C57" t="s">
+        <v>539</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="J57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="K57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="L57" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6003,56 +6449,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="X57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="Y57" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>59758</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>175887</v>
+      </c>
+      <c r="C58" t="s">
+        <v>548</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="J58" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="K58" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="L58" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6074,47 +6524,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="X58" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="Y58" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>59758</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>90359</v>
+      </c>
+      <c r="C59" t="s">
+        <v>556</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="J59" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="K59" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="L59" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
@@ -6141,56 +6595,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="X59" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="Y59" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59758</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>175888</v>
+      </c>
+      <c r="C60" t="s">
+        <v>565</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="J60" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="K60" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="L60" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6212,56 +6670,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="X60" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="Y60" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59758</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>175889</v>
+      </c>
+      <c r="C61" t="s">
+        <v>575</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="J61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="K61" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="L61" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6283,56 +6745,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="X61" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="Y61" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>59758</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>175890</v>
+      </c>
+      <c r="C62" t="s">
+        <v>582</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="J62" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="K62" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="L62" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6356,50 +6822,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>59758</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>175891</v>
+      </c>
+      <c r="C63" t="s">
+        <v>589</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="J63" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="K63" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="L63" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6423,50 +6893,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>59758</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>175892</v>
+      </c>
+      <c r="C64" t="s">
+        <v>596</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="J64" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="K64" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="L64" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6486,50 +6960,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>59758</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175893</v>
+      </c>
+      <c r="C65" t="s">
+        <v>604</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="J65" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="K65" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="L65" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6547,50 +7025,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>59758</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>175894</v>
+      </c>
+      <c r="C66" t="s">
+        <v>611</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="J66" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="K66" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="L66" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6614,50 +7096,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>59758</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>175895</v>
+      </c>
+      <c r="C67" t="s">
+        <v>619</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="J67" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="K67" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="L67" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6681,50 +7167,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59758</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>175896</v>
+      </c>
+      <c r="C68" t="s">
+        <v>626</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="J68" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="K68" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="L68" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6746,56 +7236,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="X68" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="Y68" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>59758</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>175897</v>
+      </c>
+      <c r="C69" t="s">
+        <v>636</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="J69" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="K69" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="L69" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="O69" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6817,56 +7311,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="X69" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="Y69" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59758</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>175898</v>
+      </c>
+      <c r="C70" t="s">
+        <v>644</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="J70" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="K70" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="L70" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="O70" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6888,56 +7386,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="X70" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="Y70" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>59758</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>175899</v>
+      </c>
+      <c r="C71" t="s">
+        <v>652</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="J71" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="K71" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="L71" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6961,50 +7463,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59758</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>175900</v>
+      </c>
+      <c r="C72" t="s">
+        <v>658</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="J72" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="K72" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="L72" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7028,50 +7534,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>59758</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>175901</v>
+      </c>
+      <c r="C73" t="s">
+        <v>666</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="J73" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="K73" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="L73" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7093,56 +7603,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="X73" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="Y73" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>59758</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>175902</v>
+      </c>
+      <c r="C74" t="s">
+        <v>676</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="J74" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="K74" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="L74" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7166,50 +7680,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>59758</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>175903</v>
+      </c>
+      <c r="C75" t="s">
+        <v>682</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="J75" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="K75" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="L75" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7233,50 +7751,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>59758</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>139787</v>
+      </c>
+      <c r="C76" t="s">
+        <v>690</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="J76" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
       <c r="K76" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="L76" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7300,7 +7822,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
